--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -44,7 +44,34 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 9:57 AM</t>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 4 October, 2025 10:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +281,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +293,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +701,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>21</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>22</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +811,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -71,7 +71,7 @@
     <t>33.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:00 AM</t>
+    <t>Saturday, 4 October, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -71,7 +86,46 @@
     <t>33.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:04 AM</t>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حزام فقرات </t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 4 October, 2025 10:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -762,42 +816,174 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>102</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>20</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>21</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>22</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>31</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>35</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>31</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>36</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>345.63999999999999</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>38</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>40</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -816,10 +1002,30 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -98,34 +98,22 @@
     <t>28.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">حزام فقرات </t>
-  </si>
-  <si>
-    <t>0:0</t>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:56 AM</t>
+    <t>Saturday, 4 October, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -919,71 +907,38 @@
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="7">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c t="s" r="C12" s="8">
+      <c r="P12" s="13">
+        <v>215.63999999999999</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
         <v>34</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c t="s" r="H12" s="9">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
         <v>35</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c t="s" r="L12" s="10">
-        <v>31</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c t="s" r="N12" s="8">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
         <v>36</v>
       </c>
-      <c r="O12" s="8"/>
-      <c t="s" r="P12" s="11">
-        <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>345.63999999999999</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>38</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
-        <v>39</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
-        <v>40</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1017,15 +972,10 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -113,7 +113,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 11:00 AM</t>
+    <t>Saturday, 4 October, 2025 11:11 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -44,15 +44,48 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ARAXILEVE 5 MG 30 ORO-DISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BRONCHICUM ELIXIR 100 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
@@ -71,9 +104,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -113,7 +143,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 11:11 AM</t>
+    <t>Saturday, 4 October, 2025 11:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -771,7 +801,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -780,14 +810,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -804,7 +834,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -813,14 +843,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -830,14 +860,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -846,14 +876,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -863,14 +893,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -879,66 +909,165 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>32</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>33</v>
       </c>
-      <c t="s" r="Q11" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>215.63999999999999</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>41</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>401.87</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>46</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1101,25 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -143,7 +143,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 11:35 AM</t>
+    <t>Saturday, 4 October, 2025 11:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ARAXILEVE 5 MG 30 ORO-DISPERSIBLE TABS.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>31.50</t>
   </si>
   <si>
     <t>31.5000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -92,6 +104,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>158.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -116,6 +137,21 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>54.4500</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -128,22 +164,34 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
     <t>14:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 11:52 AM</t>
+    <t>Saturday, 4 October, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -817,7 +865,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -827,11 +875,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -843,14 +891,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -860,14 +908,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -900,7 +948,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -909,14 +957,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -933,7 +981,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -949,7 +997,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -959,14 +1007,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -975,14 +1023,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -992,14 +1040,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1008,66 +1056,198 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>401.87</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>43</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>44</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>45</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c t="s" r="Q15" s="12">
         <v>46</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>52</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>57</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>52</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>58</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>556.32000000000005</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>60</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>61</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>62</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1296,30 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 11:56 AM</t>
+    <t>Saturday, 4 October, 2025 11:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -152,6 +152,24 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>LELIPEL 5 MG 20 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -191,7 +209,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 11:59 AM</t>
+    <t>Saturday, 4 October, 2025 12:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1129,7 +1147,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1139,14 +1157,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1155,31 +1173,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1188,66 +1206,132 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>18</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>58</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>59</v>
       </c>
-      <c t="s" r="Q18" s="12">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>63</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>58</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>64</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>556.32000000000005</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>60</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
-        <v>61</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
-        <v>62</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>702.32000000000005</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>66</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>67</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>68</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1316,10 +1400,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -209,7 +209,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 12:01 PM</t>
+    <t>Saturday, 4 October, 2025 12:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>LELIPEL 5 MG 20 CHEW. TABS.</t>
   </si>
   <si>
@@ -182,6 +194,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -209,7 +233,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 12:16 PM</t>
+    <t>Saturday, 4 October, 2025 12:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,7 +1204,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1190,11 +1214,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1206,14 +1230,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1230,7 +1254,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1246,13 +1270,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1263,7 +1287,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1272,66 +1296,132 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>702.32000000000005</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
         <v>66</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>67</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>68</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>70</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>71</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>66</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>72</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>764.32000000000005</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>74</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>75</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>76</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1410,10 +1500,20 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -164,9 +176,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -233,7 +242,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 12:29 PM</t>
+    <t>Saturday, 4 October, 2025 12:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1039,7 +1048,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1049,14 +1058,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1065,14 +1074,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1122,7 +1131,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1155,7 +1164,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1164,14 +1173,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1188,7 +1197,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1197,14 +1206,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1237,7 +1246,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1270,7 +1279,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1280,14 +1289,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1296,14 +1305,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1313,14 +1322,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1329,31 +1338,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1362,66 +1371,99 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>73</v>
       </c>
-      <c t="s" r="Q22" s="12">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>74</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>69</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>75</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>764.32000000000005</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>74</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>75</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>76</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>808.32000000000005</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>77</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>78</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>79</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1510,10 +1552,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -242,7 +242,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 12:44 PM</t>
+    <t>Saturday, 4 October, 2025 12:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ARAXILEVE 5 MG 30 ORO-DISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -164,6 +176,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -194,9 +218,6 @@
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -242,7 +263,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 12:46 PM</t>
+    <t>Saturday, 4 October, 2025 1:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -949,7 +970,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -959,11 +980,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -975,14 +996,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -992,14 +1013,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1032,7 +1053,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1041,14 +1062,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1081,7 +1102,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1091,14 +1112,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1107,14 +1128,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1131,7 +1152,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1164,7 +1185,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1197,7 +1218,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1206,14 +1227,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1230,7 +1251,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1239,14 +1260,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1256,14 +1277,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1272,14 +1293,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1289,11 +1310,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1305,14 +1326,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1322,14 +1343,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1338,14 +1359,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1378,24 +1399,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1404,66 +1425,132 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>808.32000000000005</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>75</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>22</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>76</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>77</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c t="s" r="Q24" s="12">
         <v>79</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>80</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>81</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>76</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>82</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>867.32000000000005</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>84</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>85</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>86</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1557,10 +1644,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -176,6 +176,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -224,16 +233,28 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
+    <t>52.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -245,10 +266,16 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
@@ -263,7 +290,16 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 1:44 PM</t>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 4 October, 2025 2:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1300,7 +1336,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,14 +1346,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1326,14 +1362,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1343,11 +1379,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1359,14 +1395,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1376,7 +1412,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1399,7 +1435,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1416,7 +1452,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1432,7 +1468,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1442,14 +1478,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1458,31 +1494,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1491,66 +1527,198 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>22</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
         <v>83</v>
       </c>
-      <c t="s" r="Q25" s="12">
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>86</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>22</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>83</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>87</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>867.32000000000005</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>84</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>85</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
-        <v>86</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>89</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>90</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>83</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>91</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>93</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>22</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>83</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>94</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>967.79999999999995</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>96</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>97</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>98</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1654,10 +1822,30 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -299,7 +299,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 2:17 PM</t>
+    <t>Saturday, 4 October, 2025 2:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -104,9 +119,6 @@
     <t>26.7300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BRONCHICUM ELIXIR 100 ML</t>
   </si>
   <si>
@@ -128,6 +140,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -200,6 +221,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -209,12 +239,33 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
     <t>36.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>LELIPEL 5 MG 20 CHEW. TABS.</t>
   </si>
   <si>
@@ -266,7 +317,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -299,7 +353,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 2:39 PM</t>
+    <t>Saturday, 4 October, 2025 2:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -990,7 +1044,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -999,14 +1053,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1016,11 +1070,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1032,14 +1086,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1049,11 +1103,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1065,14 +1119,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1082,14 +1136,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1098,7 +1152,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1115,14 +1169,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1131,14 +1185,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1171,7 +1225,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1181,14 +1235,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1197,14 +1251,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1221,7 +1275,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1237,7 +1291,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1247,14 +1301,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1263,14 +1317,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1280,14 +1334,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1296,14 +1350,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1313,14 +1367,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1329,14 +1383,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1346,14 +1400,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1362,14 +1416,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1386,7 +1440,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1402,7 +1456,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1412,14 +1466,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1428,14 +1482,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1445,14 +1499,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1461,14 +1515,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1478,14 +1532,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1494,14 +1548,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1511,14 +1565,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1527,14 +1581,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1544,14 +1598,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1560,31 +1614,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1593,28 +1647,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1626,31 +1680,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1659,66 +1713,231 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>95</v>
       </c>
-      <c t="s" r="Q29" s="12">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>96</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>97</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>99</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>27</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>100</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>101</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>104</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>27</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>100</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>105</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>967.79999999999995</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>96</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>97</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>98</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>107</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>108</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>100</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>109</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>111</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>27</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>100</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>112</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1176.55</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>114</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>115</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>116</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1842,10 +2061,35 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>79.0000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -185,9 +197,6 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>82.50</t>
   </si>
   <si>
@@ -230,6 +239,18 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -275,6 +296,18 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -285,9 +318,6 @@
   </si>
   <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:4</t>
   </si>
   <si>
     <t>752.00</t>
@@ -1374,7 +1404,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1407,7 +1437,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1416,14 +1446,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1433,14 +1463,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1449,14 +1479,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1466,11 +1496,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1482,14 +1512,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1522,7 +1552,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1539,7 +1569,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1555,7 +1585,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1565,14 +1595,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1581,14 +1611,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1598,11 +1628,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1614,14 +1644,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1631,14 +1661,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1647,14 +1677,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,7 +1694,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1687,7 +1717,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1697,14 +1727,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1713,14 +1743,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1737,7 +1767,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1770,7 +1800,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1786,24 +1816,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1812,31 +1842,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,31 +1875,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1878,7 +1908,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1891,53 +1921,152 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>113</v>
       </c>
-      <c t="s" r="Q34" s="12">
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>114</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>27</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>110</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>115</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1176.55</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>114</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>115</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>116</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>117</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>118</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>110</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>119</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>121</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>27</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>110</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>122</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1233.04</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>124</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>125</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>126</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2086,10 +2215,25 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DAKY WHITENING CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -278,13 +287,13 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:4</t>
+    <t>2:3</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>0:3</t>
+    <t>48.0000</t>
   </si>
   <si>
     <t>LELIPEL 5 MG 20 CHEW. TABS.</t>
@@ -383,7 +392,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 2:41 PM</t>
+    <t>Saturday, 4 October, 2025 3:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1453,7 +1462,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1470,7 +1479,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1479,14 +1488,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1496,14 +1505,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1512,14 +1521,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1529,11 +1538,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1545,14 +1554,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1585,7 +1594,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1595,14 +1604,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1611,14 +1620,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1628,14 +1637,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1668,7 +1677,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1684,7 +1693,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1694,14 +1703,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1710,14 +1719,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1727,14 +1736,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1743,14 +1752,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1767,7 +1776,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1783,7 +1792,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1793,14 +1802,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1809,14 +1818,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1849,7 +1858,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1882,7 +1891,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1892,14 +1901,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1908,31 +1917,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>113</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1941,7 +1950,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1954,18 +1963,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1981,21 +1990,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2007,20 +2016,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2035,38 +2044,71 @@
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1233.04</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>124</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>27</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>113</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>125</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>126</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1495.04</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>127</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>128</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>129</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2230,10 +2272,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -392,7 +392,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 3:56 PM</t>
+    <t>Saturday, 4 October, 2025 3:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -335,6 +335,18 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -359,9 +371,6 @@
     <t>14.0000</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -371,18 +380,24 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
     <t>14:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -392,7 +407,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 3:59 PM</t>
+    <t>Saturday, 4 October, 2025 4:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1941,7 +1956,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1957,13 +1972,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1974,7 +1989,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1983,7 +1998,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1996,7 +2011,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2007,7 +2022,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2023,21 +2038,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2049,20 +2064,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2077,38 +2092,104 @@
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1495.04</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>127</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>128</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>117</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>110</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>129</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>27</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>117</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>130</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1550.04</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>132</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>133</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>134</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2277,10 +2358,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -80,7 +80,7 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>24.00</t>
@@ -350,9 +350,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -407,7 +404,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 4:35 PM</t>
+    <t>Saturday, 4 October, 2025 4:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,7 +1177,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1708,7 +1705,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1972,7 +1969,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1982,11 +1979,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>40</v>
@@ -1998,7 +1995,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2011,15 +2008,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>109</v>
@@ -2031,7 +2028,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2044,15 +2041,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2064,28 +2061,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2097,20 +2094,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2130,7 +2127,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2143,15 +2140,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2165,7 +2162,7 @@
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c t="s" r="A42" s="14">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2173,13 +2170,13 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c t="s" r="G42" s="15">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="16"/>
       <c t="s" r="K42" s="17">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -278,6 +278,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>ICANDRA PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -404,7 +413,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 4:50 PM</t>
+    <t>Saturday, 4 October, 2025 4:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1738,7 +1747,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1748,11 +1757,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1821,7 +1830,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1837,7 +1846,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1903,7 +1912,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1936,7 +1945,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1946,14 +1955,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1986,7 +1995,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2002,24 +2011,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2028,7 +2037,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2041,7 +2050,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2052,7 +2061,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2068,21 +2077,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2094,28 +2103,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2127,66 +2136,99 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1550.04</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>131</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>27</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>119</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>132</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>133</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1697.04</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>134</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>135</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>136</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2365,10 +2407,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -413,7 +413,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 4:57 PM</t>
+    <t>Saturday, 4 October, 2025 4:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -365,6 +365,18 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -413,7 +425,13 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 4:58 PM</t>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 4 October, 2025 5:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2044,13 +2062,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2061,7 +2079,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2083,18 +2101,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2103,20 +2121,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2149,15 +2167,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2169,66 +2187,132 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1697.04</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>134</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>135</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>27</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>123</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>136</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>138</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>119</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>123</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>74</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1863.04</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>140</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>141</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>142</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2412,10 +2496,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -335,6 +335,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -431,7 +443,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 5:07 PM</t>
+    <t>Saturday, 4 October, 2025 5:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1963,7 +1975,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1973,14 +1985,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2013,7 +2025,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2029,7 +2041,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2039,14 +2051,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2055,14 +2067,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2079,7 +2091,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2095,13 +2107,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2112,7 +2124,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2134,18 +2146,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,20 +2166,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2200,15 +2212,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2220,28 +2232,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2253,66 +2265,99 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1863.04</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>140</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>141</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>142</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>123</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>127</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>74</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1871.04</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>144</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>145</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>146</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2506,10 +2551,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>79.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -443,7 +452,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 5:10 PM</t>
+    <t>Saturday, 4 October, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1414,7 +1423,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1424,11 +1433,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1440,14 +1449,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,11 +1466,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1473,14 +1482,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1490,14 +1499,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1506,14 +1515,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1546,7 +1555,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1563,7 +1572,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1572,14 +1581,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1589,14 +1598,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1605,14 +1614,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1622,11 +1631,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1638,14 +1647,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1678,7 +1687,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1688,14 +1697,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1704,14 +1713,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1744,7 +1753,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1761,7 +1770,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1777,7 +1786,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1794,7 +1803,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1810,7 +1819,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1820,11 +1829,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1836,14 +1845,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1853,14 +1862,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1869,14 +1878,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1893,7 +1902,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1909,7 +1918,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1919,14 +1928,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1935,14 +1944,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1975,7 +1984,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,14 +1994,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2001,14 +2010,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2025,7 +2034,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2041,7 +2050,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2051,14 +2060,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,14 +2076,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2091,7 +2100,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2107,7 +2116,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2117,14 +2126,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2133,31 +2142,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2166,7 +2175,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2179,7 +2188,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2190,7 +2199,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2206,21 +2215,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2232,28 +2241,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2265,28 +2274,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2305,59 +2314,92 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1871.04</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>144</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>145</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>126</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>130</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>77</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>146</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1926.04</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>147</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>148</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>149</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2556,10 +2598,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -452,7 +452,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 5:11 PM</t>
+    <t>Saturday, 4 October, 2025 5:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -356,6 +356,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -401,13 +410,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -452,7 +458,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 5:37 PM</t>
+    <t>Saturday, 4 October, 2025 5:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2050,24 +2056,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2083,7 +2089,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2093,14 +2099,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2109,14 +2115,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2133,7 +2139,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2149,7 +2155,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2159,14 +2165,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2175,31 +2181,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2208,7 +2214,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2221,18 +2227,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2241,28 +2247,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2274,28 +2280,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2314,21 +2320,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2340,24 +2346,24 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2368,38 +2374,71 @@
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1926.04</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>147</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>129</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>116</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>77</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>148</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2044.04</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
         <v>149</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>150</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>151</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2603,10 +2642,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>EXTRA CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -458,7 +467,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 5:38 PM</t>
+    <t>Saturday, 4 October, 2025 5:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1726,7 +1735,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1736,14 +1745,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1752,14 +1761,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1769,14 +1778,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1792,7 +1801,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1809,7 +1818,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1825,7 +1834,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1842,7 +1851,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1858,7 +1867,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1868,11 +1877,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1941,7 +1950,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1967,14 +1976,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2023,7 +2032,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2049,31 +2058,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2089,24 +2098,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2122,7 +2131,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2172,7 +2181,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2188,7 +2197,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2214,20 +2223,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2235,10 +2244,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2260,7 +2269,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2268,10 +2277,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2287,21 +2296,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2313,28 +2322,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2346,28 +2355,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2386,59 +2395,92 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2044.04</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>149</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>150</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>132</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>119</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>77</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>151</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2089.04</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>152</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>153</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>154</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2647,10 +2689,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 5:47 PM</t>
+    <t>Saturday, 4 October, 2025 5:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -278,6 +278,18 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -398,9 +410,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>52.0000</t>
   </si>
   <si>
@@ -446,6 +455,15 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -455,10 +473,10 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
+    <t>مخمريه بلوب</t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
@@ -467,7 +485,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 5:54 PM</t>
+    <t>Saturday, 4 October, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1801,7 +1819,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1811,11 +1829,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1827,14 +1845,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1844,14 +1862,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1860,14 +1878,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,14 +1895,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1893,14 +1911,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1910,11 +1928,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1926,14 +1944,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1943,14 +1961,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1966,7 +1984,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1976,14 +1994,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1992,14 +2010,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2016,7 +2034,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2032,7 +2050,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,11 +2060,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2058,14 +2076,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2082,7 +2100,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2098,24 +2116,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2124,31 +2142,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,14 +2175,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2181,7 +2199,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2197,7 +2215,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2207,14 +2225,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,14 +2241,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2240,14 +2258,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2256,20 +2274,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2277,10 +2295,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2302,7 +2320,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2310,10 +2328,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2329,21 +2347,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2355,28 +2373,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2388,28 +2406,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2421,66 +2439,165 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2089.04</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>152</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>153</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>27</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>123</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>149</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>154</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>40</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>123</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>106</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>156</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>135</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>123</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>77</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2195.04</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>158</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>159</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>160</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2694,10 +2811,25 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -485,7 +485,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 6:13 PM</t>
+    <t>Saturday, 4 October, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -149,6 +149,21 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEFAXONE 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -182,9 +197,6 @@
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -395,6 +407,15 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -431,7 +452,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>30.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -440,7 +461,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>شاش 5سم</t>
@@ -485,7 +506,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 6:14 PM</t>
+    <t>Saturday, 4 October, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1423,7 +1444,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1433,14 +1454,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1449,14 +1470,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1466,11 +1487,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1482,14 +1503,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1499,11 +1520,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1515,14 +1536,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1532,11 +1553,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1548,14 +1569,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1565,14 +1586,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1581,14 +1602,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1598,14 +1619,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1614,14 +1635,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1631,14 +1652,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1647,14 +1668,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1664,14 +1685,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1680,14 +1701,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1697,14 +1718,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1713,14 +1734,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1730,11 +1751,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1746,14 +1767,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1763,14 +1784,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1779,14 +1800,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1796,14 +1817,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1812,14 +1833,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1829,11 +1850,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1862,14 +1883,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1878,14 +1899,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1895,14 +1916,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1911,14 +1932,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1928,11 +1949,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1944,14 +1965,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1961,14 +1982,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1994,14 +2015,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2010,14 +2031,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2027,11 +2048,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2043,14 +2064,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2060,14 +2081,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2093,14 +2114,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2109,14 +2130,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,14 +2147,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2142,31 +2163,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2175,14 +2196,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2192,14 +2213,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2208,28 +2229,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2241,14 +2262,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2258,14 +2279,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2274,14 +2295,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2291,14 +2312,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2307,31 +2328,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2340,31 +2361,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2373,28 +2394,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2406,31 +2427,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2439,31 +2460,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2472,28 +2493,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2505,28 +2526,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2538,66 +2559,165 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2195.04</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>158</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>159</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>160</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>27</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>127</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>156</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>161</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>40</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>127</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>110</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>163</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>142</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>127</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>81</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2387.73</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>165</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>166</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>167</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2826,10 +2946,25 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -506,7 +506,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 6:34 PM</t>
+    <t>Saturday, 4 October, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -140,6 +152,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -185,9 +209,6 @@
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
@@ -236,6 +257,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DEMARK CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -251,9 +281,6 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -329,6 +356,18 @@
     <t>147.0000</t>
   </si>
   <si>
+    <t>ISOTRETINOIN 20MG 30CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>245.5200</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -344,9 +383,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>LELIPEL 5 MG 20 CHEW. TABS.</t>
   </si>
   <si>
@@ -392,9 +428,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.0000</t>
   </si>
   <si>
@@ -446,13 +479,25 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">حزام فقرات </t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>30.0000</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -506,7 +551,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 6:35 PM</t>
+    <t>Saturday, 4 October, 2025 6:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1312,7 +1357,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1322,14 +1367,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1338,7 +1383,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1355,14 +1400,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1371,14 +1416,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1411,7 +1456,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1421,14 +1466,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1437,14 +1482,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1454,14 +1499,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1470,14 +1515,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1487,11 +1532,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1503,14 +1548,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1520,14 +1565,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1536,14 +1581,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1553,11 +1598,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1569,14 +1614,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1586,11 +1631,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1602,14 +1647,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1619,11 +1664,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1635,14 +1680,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1659,7 +1704,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1675,7 +1720,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1692,7 +1737,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1708,7 +1753,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1718,14 +1763,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1741,7 +1786,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1751,14 +1796,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1767,14 +1812,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1784,14 +1829,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1800,14 +1845,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1817,14 +1862,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1833,14 +1878,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1857,7 +1902,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1873,7 +1918,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1883,14 +1928,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1899,14 +1944,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1916,14 +1961,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1932,7 +1977,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1949,11 +1994,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1965,14 +2010,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1982,14 +2027,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1998,14 +2043,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2038,7 +2083,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2048,11 +2093,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2064,14 +2109,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2088,7 +2133,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2137,13 +2182,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2154,7 +2199,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2170,7 +2215,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2180,14 +2225,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2196,14 +2241,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2213,14 +2258,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2229,28 +2274,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2262,14 +2307,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2279,11 +2324,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2295,14 +2340,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2312,11 +2357,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2328,14 +2373,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2345,14 +2390,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2361,31 +2406,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2394,14 +2439,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2411,14 +2456,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2427,31 +2472,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2460,31 +2505,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2493,31 +2538,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2526,28 +2571,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2559,28 +2604,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2592,7 +2637,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2605,18 +2650,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2625,31 +2670,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2658,66 +2703,231 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2387.73</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>165</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>166</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>170</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>167</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>116</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>171</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>173</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>174</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>116</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>148</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>175</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>27</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>116</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>171</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>176</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>44</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>116</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>123</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>178</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>153</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>116</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>90</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>3010.77</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>180</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>181</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>182</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2961,10 +3171,35 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -551,7 +551,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 6:39 PM</t>
+    <t>Saturday, 4 October, 2025 6:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -461,6 +461,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>234.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -551,7 +560,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 6:40 PM</t>
+    <t>Saturday, 4 October, 2025 6:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2545,7 +2554,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2555,14 +2564,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2571,14 +2580,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2588,14 +2597,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2604,20 +2613,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2661,7 +2670,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2670,7 +2679,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2687,14 +2696,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2710,7 +2719,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2736,14 +2745,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2776,7 +2785,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2786,11 +2795,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2819,11 +2828,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2835,14 +2844,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2852,11 +2861,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2868,14 +2877,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2885,49 +2894,82 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>3010.77</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>180</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>181</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>156</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>116</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>90</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>182</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3244.77</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>183</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>184</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>185</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3196,10 +3238,15 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -423,6 +423,15 @@
   </si>
   <si>
     <t>8.0000</t>
+  </si>
+  <si>
+    <t>OZMO CIDE FACIAL CLEANSER</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -2422,7 +2431,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2448,31 +2457,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2488,7 +2497,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2521,7 +2530,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2587,7 +2596,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2597,14 +2606,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2646,20 +2655,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2703,7 +2712,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2712,7 +2721,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2729,14 +2738,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>168</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2752,7 +2761,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2762,14 +2771,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2818,7 +2827,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2828,11 +2837,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2844,14 +2853,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2861,11 +2870,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2894,11 +2903,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2927,49 +2936,82 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3244.77</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>183</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>184</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>159</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>116</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>90</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>185</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3339.77</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>186</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>187</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>188</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3243,10 +3285,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AGERA ACNE CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -92,9 +104,6 @@
     <t>ARAXILEVE 5 MG 30 ORO-DISPERSIBLE TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>31.50</t>
   </si>
   <si>
@@ -200,9 +209,6 @@
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
     <t>55.0000</t>
   </si>
   <si>
@@ -404,6 +410,12 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>NATRY SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -560,16 +572,13 @@
     <t>مخمريه بلوب</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 6:43 PM</t>
+    <t>Saturday, 4 October, 2025 6:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1260,7 +1269,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1269,14 +1278,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1286,14 +1295,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1342,7 +1351,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1375,7 +1384,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1385,11 +1394,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1401,14 +1410,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1425,7 +1434,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1458,7 +1467,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1474,7 +1483,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1484,11 +1493,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1517,14 +1526,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1533,14 +1542,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1557,7 +1566,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1573,7 +1582,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1599,14 +1608,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1639,7 +1648,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1649,14 +1658,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1672,7 +1681,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1689,7 +1698,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1705,7 +1714,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1715,14 +1724,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1731,14 +1740,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1748,14 +1757,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1814,11 +1823,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1946,14 +1955,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1979,14 +1988,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1995,14 +2004,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2045,14 +2054,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2061,14 +2070,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2078,14 +2087,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2094,14 +2103,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2111,11 +2120,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2144,14 +2153,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2193,31 +2202,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2226,31 +2235,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2266,7 +2275,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,14 +2285,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2313,10 +2322,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,14 +2417,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2424,31 +2433,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,31 +2466,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2490,31 +2499,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,31 +2532,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2556,14 +2565,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2672,11 +2681,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2688,7 +2697,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2701,18 +2710,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,31 +2730,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,31 +2763,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,31 +2796,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2820,31 +2829,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2853,28 +2862,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2886,28 +2895,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2919,28 +2928,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2952,66 +2961,132 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3339.77</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>186</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>47</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>118</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>125</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>187</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>163</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>118</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>92</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>188</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3509.77</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>189</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>190</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>191</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3290,10 +3365,20 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 6:56 PM</t>
+    <t>Saturday, 4 October, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -459,6 +459,15 @@
   </si>
   <si>
     <t>37.6000</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
   </si>
   <si>
     <t>ROWATINEX 45 CAPSULES</t>
@@ -2605,7 +2614,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2622,7 +2631,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2638,7 +2647,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2648,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2664,14 +2673,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2704,7 +2713,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2714,14 +2723,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2730,14 +2739,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2747,14 +2756,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2763,20 +2772,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2820,7 +2829,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2829,7 +2838,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2846,14 +2855,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>175</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2869,7 +2878,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2879,14 +2888,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2935,7 +2944,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2945,11 +2954,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2978,11 +2987,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3011,11 +3020,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3044,49 +3053,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3509.77</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>189</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>190</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>166</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>118</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>92</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3539.77</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>192</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>193</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>194</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3375,10 +3417,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -128,267 +128,279 @@
     <t>48.00</t>
   </si>
   <si>
+    <t>55.6800</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEFAXONE 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>158.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DAKY WHITENING CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>54.4500</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DEMARK CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>EXTRA CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>ICANDRA PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>ISOTRETINOIN 20MG 30CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>245.5200</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
     <t>48.0000</t>
   </si>
   <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BRONCHICUM ELIXIR 100 ML</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEFAXONE 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>158.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DAKY WHITENING CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>250.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>54.4500</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DEMARK CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>EXTRA CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>ICANDRA PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>147.0000</t>
-  </si>
-  <si>
-    <t>ISOTRETINOIN 20MG 30CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>372.00</t>
-  </si>
-  <si>
-    <t>245.5200</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>LELIPEL 5 MG 20 CHEW. TABS.</t>
   </si>
   <si>
@@ -533,10 +545,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -545,9 +557,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>شاش 5سم</t>
   </si>
   <si>
@@ -587,7 +596,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:01 PM</t>
+    <t>Saturday, 4 October, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1443,7 +1452,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1452,7 +1461,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1469,11 +1478,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1485,7 +1494,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1502,11 +1511,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1518,14 +1527,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1535,11 +1544,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1624,7 +1633,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1921,7 +1930,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1938,7 +1947,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1954,7 +1963,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1964,14 +1973,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2020,7 +2029,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2053,7 +2062,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2070,7 +2079,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2086,7 +2095,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2096,14 +2105,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2185,7 +2194,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2202,7 +2211,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2218,7 +2227,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2235,7 +2244,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2251,24 +2260,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2277,31 +2286,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2350,7 +2359,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2400,7 +2409,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2426,14 +2435,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2475,14 +2484,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2499,7 +2508,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2515,24 +2524,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2541,28 +2550,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2574,31 +2583,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2624,14 +2633,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,14 +2682,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2697,7 +2706,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2713,7 +2722,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2723,11 +2732,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2739,14 +2748,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2812,21 +2821,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2838,7 +2847,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2851,18 +2860,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2884,7 +2893,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2895,7 +2904,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,20 +2913,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2925,10 +2934,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2937,20 +2946,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2977,21 +2986,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3003,28 +3012,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3036,28 +3045,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3069,66 +3078,99 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3539.77</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>192</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>193</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>170</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>121</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>95</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>194</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3601.4749999999999</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>195</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>196</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>197</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3422,10 +3464,15 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -596,7 +596,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:06 PM</t>
+    <t>Saturday, 4 October, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -302,6 +314,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -434,9 +455,6 @@
     <t>56.00</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -578,6 +596,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات لورد بالكيس </t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -596,7 +617,10 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:07 PM</t>
+    <t>معجون اسنان فلورو بالكولا</t>
+  </si>
+  <si>
+    <t>Saturday, 4 October, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1624,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1610,11 +1634,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>25</v>
@@ -1626,14 +1650,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1643,14 +1667,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1659,14 +1683,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1676,14 +1700,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1692,14 +1716,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1709,11 +1733,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -1725,14 +1749,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1742,11 +1766,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1758,14 +1782,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1775,11 +1799,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1791,14 +1815,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1808,11 +1832,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1824,14 +1848,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1848,7 +1872,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1864,7 +1888,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1874,11 +1898,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1890,14 +1914,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1931,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1930,7 +1954,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1947,7 +1971,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1956,14 +1980,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,14 +1997,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1989,14 +2013,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2013,7 +2037,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2029,7 +2053,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2039,11 +2063,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2055,14 +2079,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2072,11 +2096,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2088,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2105,11 +2129,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2121,14 +2145,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2138,14 +2162,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2161,7 +2185,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2171,11 +2195,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2187,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,14 +2228,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2227,7 +2251,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,14 +2261,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2253,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,11 +2294,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2286,7 +2310,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2299,7 +2323,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2310,7 +2334,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2326,7 +2350,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,11 +2360,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2352,31 +2376,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2385,14 +2409,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,7 +2426,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2442,7 +2466,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2458,7 +2482,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2468,11 +2492,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2484,14 +2508,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,11 +2525,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2517,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2558,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2557,13 +2581,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2571,10 +2595,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2583,31 +2607,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2616,31 +2640,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2649,7 +2673,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2662,11 +2686,11 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2689,7 +2713,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2722,7 +2746,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,11 +2756,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2748,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,14 +2789,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2781,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,14 +2822,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2814,14 +2838,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2854,24 +2878,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2880,20 +2904,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2904,7 +2928,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2913,7 +2937,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2926,18 +2950,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2953,24 +2977,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>185</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2986,13 +3010,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3000,10 +3024,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,28 +3036,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3045,28 +3069,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3078,28 +3102,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3111,66 +3135,198 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>198</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>18</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>128</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>193</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>194</v>
       </c>
-      <c t="s" r="Q64" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3601.4749999999999</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>195</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>196</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>197</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>199</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>48</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>128</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>135</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>200</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>176</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>128</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>99</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>202</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>22</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>128</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>161</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3697.395</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>203</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>204</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>205</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3469,10 +3625,30 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -521,6 +521,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>24.5000</t>
+  </si>
+  <si>
     <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
   </si>
   <si>
@@ -620,7 +629,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:11 PM</t>
+    <t>Saturday, 4 October, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2845,7 +2854,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2862,7 +2871,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2878,7 +2887,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2888,14 +2897,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,14 +2913,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2921,14 +2930,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,20 +2946,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2994,7 +3003,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,7 +3012,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3020,14 +3029,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3057,10 +3066,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3109,7 +3118,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3119,11 +3128,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3152,11 +3161,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3168,14 +3177,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3185,11 +3194,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3218,11 +3227,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3251,11 +3260,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3284,49 +3293,82 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>205</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>22</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>128</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>161</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>162</v>
       </c>
-      <c t="s" r="Q68" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3697.395</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>203</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>204</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>205</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3721.895</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>206</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>207</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>208</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3645,10 +3687,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -254,6 +254,12 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>DAKY WHITENING CREAM 60 GM</t>
   </si>
   <si>
@@ -323,6 +329,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>EGY TOTAVIT SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -365,6 +380,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -419,7 +443,13 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
   </si>
   <si>
     <t>LELIPEL 5 MG 20 CHEW. TABS.</t>
@@ -557,6 +587,12 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">حزام فقرات </t>
   </si>
   <si>
@@ -575,9 +611,6 @@
     <t>46.0000</t>
   </si>
   <si>
-    <t>23:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -629,7 +662,10 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:16 PM</t>
+    <t>مناديل بكر فاين</t>
+  </si>
+  <si>
+    <t>Saturday, 4 October, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1930,7 +1966,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1940,11 +1976,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1956,14 +1992,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1973,14 +2009,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1989,14 +2025,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2006,14 +2042,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2022,14 +2058,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2039,14 +2075,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2055,14 +2091,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2072,14 +2108,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2088,14 +2124,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2105,11 +2141,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2121,14 +2157,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2138,14 +2174,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2154,14 +2190,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2171,14 +2207,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2187,7 +2223,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2204,11 +2240,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2220,14 +2256,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2237,14 +2273,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2253,14 +2289,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2270,11 +2306,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2286,14 +2322,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2303,14 +2339,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2319,14 +2355,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2336,14 +2372,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2352,14 +2388,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2369,11 +2405,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2385,31 +2421,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2418,14 +2454,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2435,14 +2471,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2451,14 +2487,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2468,14 +2504,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2484,31 +2520,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2517,14 +2553,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2534,14 +2570,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2550,14 +2586,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2567,14 +2603,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2583,14 +2619,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2600,14 +2636,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2616,14 +2652,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2633,14 +2669,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2649,31 +2685,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2682,28 +2718,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2715,14 +2751,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2732,11 +2768,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2748,14 +2784,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2765,14 +2801,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2781,31 +2817,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2814,28 +2850,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2847,14 +2883,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,11 +2900,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2880,14 +2916,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,11 +2933,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2913,14 +2949,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,14 +2966,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2946,14 +2982,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2963,11 +2999,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2979,31 +3015,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3012,7 +3048,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3025,18 +3061,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3045,31 +3081,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>179</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3078,28 +3114,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3111,28 +3147,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3144,28 +3180,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3177,31 +3213,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3210,7 +3246,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3223,18 +3259,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3250,21 +3286,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3276,28 +3312,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3309,66 +3345,264 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3721.895</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>206</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>210</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>211</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>136</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>178</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>212</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>18</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>136</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
         <v>207</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>208</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>213</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>48</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>136</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>143</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>214</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>189</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>136</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>101</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>216</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>22</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>136</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>171</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>217</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>18</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>136</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>14</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3904.895</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>218</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>219</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>220</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3692,10 +3926,40 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -665,7 +665,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:27 PM</t>
+    <t>Saturday, 4 October, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -602,6 +602,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -620,9 +629,6 @@
     <t>شاش 5سم</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -665,7 +671,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:36 PM</t>
+    <t>Saturday, 4 October, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3220,7 +3226,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3230,14 +3236,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3267,10 +3273,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3279,14 +3285,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3300,10 +3306,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3312,14 +3318,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3329,11 +3335,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3345,14 +3351,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3362,11 +3368,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3378,14 +3384,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3395,11 +3401,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3418,7 +3424,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3428,11 +3434,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3461,11 +3467,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3494,11 +3500,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3517,7 +3523,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3527,11 +3533,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3543,14 +3549,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3560,49 +3566,82 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>219</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>18</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>136</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>14</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3904.895</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>218</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>219</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3944.895</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
         <v>220</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>221</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>222</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3956,10 +3995,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -380,6 +380,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -473,6 +482,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>NATRY SOAP 100 GM</t>
   </si>
   <si>
@@ -512,6 +530,9 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -527,9 +548,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -638,9 +656,6 @@
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -653,6 +668,18 @@
     <t>14:0</t>
   </si>
   <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -671,7 +698,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:38 PM</t>
+    <t>Saturday, 4 October, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2401,7 +2428,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2418,7 +2445,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2434,7 +2461,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2467,7 +2494,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2484,7 +2511,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2500,7 +2527,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2517,7 +2544,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2533,24 +2560,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2559,31 +2586,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2592,14 +2619,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2609,14 +2636,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2632,7 +2659,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2642,14 +2669,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2665,7 +2692,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2698,7 +2725,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2708,14 +2735,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2741,14 +2768,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2774,14 +2801,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2807,14 +2834,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2830,13 +2857,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2844,10 +2871,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2856,31 +2883,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2889,31 +2916,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2922,7 +2949,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2935,11 +2962,11 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2962,7 +2989,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2972,14 +2999,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2988,14 +3015,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3005,14 +3032,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3021,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3038,14 +3065,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3071,14 +3098,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3104,14 +3131,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3120,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3137,14 +3164,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3153,28 +3180,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3186,31 +3213,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3219,28 +3246,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3252,31 +3279,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3285,7 +3312,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3298,18 +3325,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>189</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3318,28 +3345,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3351,31 +3378,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3384,31 +3411,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3417,28 +3444,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3457,21 +3484,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3483,28 +3510,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3516,28 +3543,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3549,28 +3576,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3582,7 +3609,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3595,53 +3622,185 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>224</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>48</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>139</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>146</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>225</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>195</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>139</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>101</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>227</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>22</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>139</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>178</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>228</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>18</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>139</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>14</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q76" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3944.895</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>220</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>221</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>222</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4229.8950000000004</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>229</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>230</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>231</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4000,10 +4159,30 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>CASHO SOOTHING SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -221,9 +230,6 @@
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -593,6 +599,27 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -635,7 +662,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -698,7 +725,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:42 PM</t>
+    <t>Saturday, 4 October, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1702,7 +1729,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1712,14 +1739,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1728,14 +1755,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1768,7 +1795,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1778,14 +1805,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1794,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1811,14 +1838,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1834,7 +1861,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1844,7 +1871,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1867,7 +1894,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1877,11 +1904,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1893,14 +1920,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1910,11 +1937,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1926,14 +1953,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1943,11 +1970,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1959,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1976,14 +2003,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1992,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2009,7 +2036,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2032,7 +2059,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2042,11 +2069,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2058,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2075,14 +2102,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2091,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2108,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2124,14 +2151,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,14 +2168,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2157,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2174,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2207,11 +2234,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2223,14 +2250,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,14 +2267,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2273,11 +2300,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2306,14 +2333,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2322,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2339,14 +2366,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2355,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,14 +2399,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2405,14 +2432,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2454,14 +2481,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,14 +2498,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,11 +2531,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2553,14 +2580,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2570,14 +2597,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2586,31 +2613,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,31 +2646,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2659,7 +2686,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2706,10 +2733,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,11 +2762,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2751,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2784,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2817,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,7 +2861,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2857,7 +2884,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2890,7 +2917,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,14 +2927,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2916,31 +2943,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2949,24 +2976,24 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2989,21 +3016,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3015,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,14 +3059,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3048,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3088,7 +3115,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3102,10 +3129,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3147,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3253,7 +3280,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3263,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,28 +3306,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3312,20 +3339,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3336,7 +3363,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3358,15 +3385,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3378,31 +3405,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3424,7 +3451,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3432,10 +3459,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,28 +3471,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3477,31 +3504,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,31 +3537,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3543,28 +3570,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3576,28 +3603,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3609,28 +3636,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3642,28 +3669,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3675,28 +3702,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3708,28 +3735,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3741,66 +3768,165 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>234</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>204</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>141</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>103</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>236</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>22</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>141</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>180</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>237</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>18</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>141</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>14</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q80" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4229.8950000000004</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>229</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>230</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>231</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4342.7250000000004</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>238</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>239</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>240</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4179,10 +4305,25 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>138.0000</t>
   </si>
   <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -497,6 +506,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NATRY SOAP 100 GM</t>
   </si>
   <si>
@@ -536,6 +554,15 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
@@ -605,9 +632,6 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -662,7 +686,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>28:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -671,6 +698,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>شاش 5سم</t>
   </si>
   <si>
@@ -725,7 +755,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:49 PM</t>
+    <t>Saturday, 4 October, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1861,7 +1891,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1871,14 +1901,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1894,7 +1924,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1904,7 +1934,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1927,7 +1957,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1937,11 +1967,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1953,14 +1983,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1970,14 +2000,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1993,7 +2023,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2026,7 +2056,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,14 +2066,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2052,14 +2082,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,11 +2099,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2085,14 +2115,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,7 +2132,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2125,7 +2155,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2142,7 +2172,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2151,14 +2181,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,14 +2198,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2191,7 +2221,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2208,7 +2238,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2224,7 +2254,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2234,14 +2264,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2250,14 +2280,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2290,7 +2320,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2307,7 +2337,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2323,7 +2353,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2356,7 +2386,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2373,7 +2403,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2389,7 +2419,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2406,7 +2436,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2422,7 +2452,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,14 +2462,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2448,14 +2478,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2495,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2511,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2505,7 +2535,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2521,7 +2551,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2538,7 +2568,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2554,7 +2584,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2587,7 +2617,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2604,7 +2634,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2620,7 +2650,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2637,7 +2667,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2653,24 +2683,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,31 +2709,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2742,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2759,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2752,7 +2782,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2762,14 +2792,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2785,7 +2815,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2818,7 +2848,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2858,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2874,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2868,7 +2898,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2884,7 +2914,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,11 +2924,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2910,28 +2940,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2943,14 +2973,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,14 +2990,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2983,13 +3013,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2997,10 +3027,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,31 +3039,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,28 +3072,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3075,31 +3105,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3155,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3141,14 +3171,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3188,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3204,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3198,7 +3228,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3214,7 +3244,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3228,10 +3258,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3270,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3287,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,14 +3303,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3320,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3336,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3353,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,14 +3369,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3363,7 +3393,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3379,7 +3409,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3419,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,28 +3435,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3438,31 +3468,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,24 +3501,24 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3511,24 +3541,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,7 +3567,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3550,18 +3580,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3577,17 +3607,17 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3610,24 +3640,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,31 +3666,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,28 +3699,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3702,28 +3732,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3735,28 +3765,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3768,28 +3798,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3801,28 +3831,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3834,28 +3864,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3867,66 +3897,165 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>244</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>212</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>144</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>106</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>246</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>22</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>144</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>189</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>247</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>18</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>144</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>14</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4342.7250000000004</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>238</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>239</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>240</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4635.4949999999999</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>248</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>249</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>250</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4320,10 +4449,25 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -305,6 +305,18 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>9:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEMARK CREAM 100 GM</t>
   </si>
   <si>
@@ -317,13 +329,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DIMRA 20 F.C.TAB.</t>
@@ -548,6 +554,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -686,10 +701,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>28:0</t>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -698,7 +713,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>21.0000</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>شاش 5سم</t>
@@ -728,9 +743,6 @@
     <t>قطن ازن صغير</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -755,7 +767,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:51 PM</t>
+    <t>Saturday, 4 October, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2254,7 +2266,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2264,14 +2276,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2280,14 +2292,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2304,7 +2316,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2320,7 +2332,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2330,14 +2342,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2346,14 +2358,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2363,14 +2375,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2396,11 +2408,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2412,14 +2424,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2429,14 +2441,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,14 +2474,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2478,14 +2490,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2495,14 +2507,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2511,14 +2523,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2528,14 +2540,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2544,14 +2556,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2561,14 +2573,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2577,14 +2589,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2594,14 +2606,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2610,14 +2622,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2627,11 +2639,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2660,14 +2672,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2676,14 +2688,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2693,14 +2705,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2709,31 +2721,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2742,31 +2754,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2782,7 +2794,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,14 +2804,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2829,10 +2841,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2841,14 +2853,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2858,11 +2870,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2874,14 +2886,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2891,14 +2903,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2907,14 +2919,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2924,14 +2936,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2940,7 +2952,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2953,18 +2965,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2973,31 +2985,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3013,7 +3025,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3023,14 +3035,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3046,7 +3058,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3056,14 +3068,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3072,31 +3084,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3105,24 +3117,24 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3155,7 +3167,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3178,21 +3190,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3221,11 +3233,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,11 +3266,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3277,7 +3289,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3310,7 +3322,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,11 +3332,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3336,14 +3348,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3353,11 +3365,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,11 +3398,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3419,14 +3431,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3456,7 +3468,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3468,14 +3480,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,14 +3497,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,11 +3530,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3534,31 +3546,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3567,20 +3579,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3613,15 +3625,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3633,7 +3645,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3646,18 +3658,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3666,31 +3678,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3699,31 +3711,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3732,31 +3744,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>234</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3772,21 +3784,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3798,28 +3810,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3831,28 +3843,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3864,28 +3876,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3904,21 +3916,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3930,28 +3942,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3963,28 +3975,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3996,66 +4008,132 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>250</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>22</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>146</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>194</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>251</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>18</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>146</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>14</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4635.4949999999999</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>248</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>249</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>250</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4687.2550000000001</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>252</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>253</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>254</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4464,10 +4542,20 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -239,6 +239,12 @@
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -332,6 +338,9 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -575,9 +584,6 @@
     <t>0:3</t>
   </si>
   <si>
-    <t>22.7700</t>
-  </si>
-  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
@@ -605,6 +611,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -767,7 +782,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:54 PM</t>
+    <t>Saturday, 4 October, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2045,11 +2060,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2061,14 +2076,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2078,11 +2093,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2094,14 +2109,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2111,14 +2126,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2127,14 +2142,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2144,7 +2159,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2167,7 +2182,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2177,11 +2192,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2193,14 +2208,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2210,14 +2225,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2226,14 +2241,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2243,14 +2258,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2259,14 +2274,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2276,11 +2291,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2292,14 +2307,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2309,14 +2324,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2325,14 +2340,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2342,14 +2357,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2365,7 +2380,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2375,14 +2390,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2391,14 +2406,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2408,14 +2423,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2424,14 +2439,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2441,14 +2456,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2457,14 +2472,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2474,14 +2489,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2490,7 +2505,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2507,11 +2522,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2523,14 +2538,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2540,14 +2555,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2556,14 +2571,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2573,11 +2588,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2589,14 +2604,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2606,14 +2621,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2622,14 +2637,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2639,11 +2654,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2655,14 +2670,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2672,14 +2687,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2688,14 +2703,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2705,14 +2720,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2721,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2738,11 +2753,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2754,7 +2769,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2767,18 +2782,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2787,14 +2802,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2804,11 +2819,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2820,31 +2835,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2853,7 +2868,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2870,11 +2885,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2886,14 +2901,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2903,14 +2918,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2919,14 +2934,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2936,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2952,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2969,11 +2984,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2985,28 +3000,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3018,14 +3033,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3035,11 +3050,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3051,28 +3066,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3084,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3101,14 +3116,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3117,31 +3132,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3150,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3167,14 +3182,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3183,28 +3198,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3216,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,11 +3248,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3249,28 +3264,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3282,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3299,11 +3314,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3315,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3332,11 +3347,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3348,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3365,11 +3380,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3381,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3398,11 +3413,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3414,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,11 +3446,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3447,14 +3462,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,14 +3479,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3480,14 +3495,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3497,14 +3512,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3513,14 +3528,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3530,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3546,14 +3561,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3563,14 +3578,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3579,14 +3594,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3596,14 +3611,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3612,28 +3627,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3645,31 +3660,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3678,28 +3693,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3711,31 +3726,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3744,7 +3759,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3757,18 +3772,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>234</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3777,28 +3792,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3810,31 +3825,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3843,31 +3858,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3876,28 +3891,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3916,21 +3931,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3942,28 +3957,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3975,28 +3990,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4015,21 +4030,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4041,28 +4056,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4074,66 +4089,165 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>253</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>222</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>149</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>111</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>255</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>22</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>149</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>196</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>256</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>18</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>149</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>14</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q88" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4687.2550000000001</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>252</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>253</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>254</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4779.3249999999998</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>257</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>258</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>259</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4552,10 +4666,25 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -782,7 +782,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:55 PM</t>
+    <t>Saturday, 4 October, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -386,6 +386,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FANGRARE SHOWER GEL 200 ML</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -782,7 +791,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 7:56 PM</t>
+    <t>Saturday, 4 October, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2611,7 +2620,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2621,14 +2630,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2637,14 +2646,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2654,14 +2663,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2694,7 +2703,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2710,7 +2719,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2727,7 +2736,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2743,7 +2752,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2776,7 +2785,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2793,7 +2802,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2809,7 +2818,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2826,7 +2835,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2842,24 +2851,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,31 +2877,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2901,14 +2910,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,14 +2927,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2941,7 +2950,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2974,7 +2983,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3007,7 +3016,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,14 +3026,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3057,7 +3066,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3079,7 +3088,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3090,7 +3099,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3106,24 +3115,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,14 +3158,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3186,10 +3195,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,20 +3207,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3222,7 +3231,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3238,24 +3247,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3271,24 +3280,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3297,31 +3306,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3330,14 +3339,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,14 +3356,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3363,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,14 +3389,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3403,7 +3412,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3417,10 +3426,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3455,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3469,7 +3478,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3502,7 +3511,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,14 +3521,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,14 +3537,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3552,7 +3561,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3568,7 +3577,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3585,7 +3594,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3601,7 +3610,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3681,10 +3690,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3710,14 +3719,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3726,28 +3735,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3759,28 +3768,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3799,17 +3808,17 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3832,24 +3841,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3858,7 +3867,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3871,15 +3880,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>239</v>
@@ -3898,13 +3907,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3912,10 +3921,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>242</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3931,21 +3940,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3957,28 +3966,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3990,28 +3999,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4023,28 +4032,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4063,21 +4072,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4089,28 +4098,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4122,28 +4131,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4155,28 +4164,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4188,66 +4197,99 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>259</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>18</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>152</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>14</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q91" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4779.3249999999998</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>257</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>258</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>259</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4929.3249999999998</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>260</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>261</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>262</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4681,10 +4723,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -563,6 +563,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>OZMO CIDE FACIAL CLEANSER</t>
   </si>
   <si>
@@ -659,6 +668,15 @@
     <t>234.0000</t>
   </si>
   <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -791,7 +809,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 8:15 PM</t>
+    <t>Saturday, 4 October, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3247,13 +3265,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3264,7 +3282,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3280,24 +3298,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3313,24 +3331,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3339,31 +3357,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3372,14 +3390,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,14 +3407,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,14 +3440,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3445,7 +3463,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3459,10 +3477,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3511,7 +3529,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3544,7 +3562,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3554,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3594,7 +3612,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3610,7 +3628,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3627,7 +3645,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3643,7 +3661,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,14 +3671,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3686,14 +3704,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3702,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3742,7 +3760,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3752,11 +3770,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3768,31 +3786,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3808,21 +3826,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3834,14 +3852,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3851,11 +3869,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3891,7 +3909,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3900,14 +3918,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3917,14 +3935,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3950,14 +3968,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>245</v>
-      </c>
-      <c t="s" r="Q83" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3973,7 +3991,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3983,14 +4001,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4016,11 +4034,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4032,14 +4050,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4049,11 +4067,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,11 +4100,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4098,14 +4116,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4115,11 +4133,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4131,14 +4149,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4148,11 +4166,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4164,14 +4182,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,11 +4199,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4197,14 +4215,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4214,11 +4232,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4230,14 +4248,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4247,49 +4265,115 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>264</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>22</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>152</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>202</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>265</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>18</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>152</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>14</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4929.3249999999998</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>260</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>261</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>262</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4999.6149999999998</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>266</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>267</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>268</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4728,10 +4812,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -809,7 +809,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 8:16 PM</t>
+    <t>Saturday, 4 October, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -476,6 +476,9 @@
     <t>245.5200</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -629,6 +632,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -719,6 +731,15 @@
     <t>23:0</t>
   </si>
   <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">حزام فقرات </t>
   </si>
   <si>
@@ -761,9 +782,6 @@
     <t>شاش 5سم</t>
   </si>
   <si>
-    <t>5.00</t>
-  </si>
-  <si>
     <t>5.0000</t>
   </si>
   <si>
@@ -788,7 +806,7 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>كريم 555</t>
   </si>
   <si>
     <t>ماسك جلسات اطفال</t>
@@ -2935,7 +2953,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2945,11 +2963,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3044,11 +3062,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3077,14 +3095,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3110,14 +3128,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3126,7 +3144,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3139,18 +3157,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3159,31 +3177,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3192,14 +3210,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3209,14 +3227,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,14 +3260,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3291,31 +3309,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3324,31 +3342,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3357,31 +3375,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3390,31 +3408,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3440,14 +3458,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3463,7 +3481,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3473,14 +3491,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3506,14 +3524,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3522,14 +3540,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3539,14 +3557,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3555,14 +3573,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3572,11 +3590,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3638,11 +3656,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3671,11 +3689,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3704,11 +3722,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3737,14 +3755,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3753,14 +3771,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3770,14 +3788,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3793,7 +3811,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3803,14 +3821,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3836,11 +3854,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3852,31 +3870,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,28 +3903,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3918,14 +3936,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3935,11 +3953,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3951,14 +3969,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3968,14 +3986,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>245</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,7 +4002,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4001,14 +4019,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>248</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4017,14 +4035,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4034,11 +4052,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4050,14 +4068,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4067,14 +4085,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4100,14 +4118,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4116,14 +4134,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4133,11 +4151,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4149,14 +4167,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4166,7 +4184,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4189,7 +4207,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4199,11 +4217,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4222,7 +4240,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>48</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4232,11 +4250,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4248,14 +4266,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4265,11 +4283,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4298,11 +4316,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4314,7 +4332,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4331,49 +4349,181 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>267</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>48</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>152</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>160</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>268</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>235</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>152</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>111</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>270</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>22</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>152</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>203</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>271</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>18</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>152</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>14</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4999.6149999999998</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>266</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>267</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>268</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5156.6149999999998</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>272</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>273</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>274</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4822,10 +4972,30 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -617,6 +617,15 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
@@ -632,6 +641,9 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>SYNOBAR SOAP 100 GM</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -827,7 +839,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 8:42 PM</t>
+    <t>Saturday, 4 October, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3547,13 +3559,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3561,7 +3573,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3573,14 +3585,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3590,14 +3602,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3613,7 +3625,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3646,7 +3658,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3656,14 +3668,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3722,11 +3734,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3755,11 +3767,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3788,11 +3800,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3821,14 +3833,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3854,14 +3866,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3877,7 +3889,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3903,14 +3915,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3920,11 +3932,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3936,31 +3948,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3969,31 +3981,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4019,11 +4031,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4035,14 +4047,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4052,14 +4064,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4068,7 +4080,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4085,14 +4097,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>252</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4101,14 +4113,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4118,14 +4130,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4134,14 +4146,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4151,14 +4163,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4167,14 +4179,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4184,14 +4196,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q89" s="12">
         <v>259</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4207,7 +4219,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4217,11 +4229,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4250,11 +4262,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4283,11 +4295,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4306,7 +4318,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4316,11 +4328,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4349,11 +4361,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4365,14 +4377,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4382,11 +4394,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4398,14 +4410,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4415,11 +4427,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4431,14 +4443,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4448,11 +4460,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4464,14 +4476,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4481,49 +4493,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>274</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>22</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>152</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>206</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>275</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>18</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>152</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>14</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q98" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5156.6149999999998</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>272</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>273</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>274</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5306.6149999999998</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>276</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>277</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>278</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4992,10 +5070,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -737,6 +737,12 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>امواس لورد</t>
   </si>
   <si>
@@ -839,7 +845,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 8:49 PM</t>
+    <t>Saturday, 4 October, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4021,7 +4027,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4031,11 +4037,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4054,7 +4060,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4064,14 +4070,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4097,14 +4103,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4130,11 +4136,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4146,14 +4152,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4163,14 +4169,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4179,7 +4185,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4196,14 +4202,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4229,14 +4235,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>261</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4252,7 +4258,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4262,7 +4268,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4285,7 +4291,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4295,11 +4301,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4328,11 +4334,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4351,7 +4357,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4361,11 +4367,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4384,7 +4390,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4394,11 +4400,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>137</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4410,7 +4416,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4431,7 +4437,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4460,11 +4466,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4493,11 +4499,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4516,7 +4522,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4526,11 +4532,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4542,14 +4548,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4559,49 +4565,82 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>277</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>18</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>152</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>14</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5306.6149999999998</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>276</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>277</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5331.6149999999998</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
         <v>278</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>279</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>280</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5080,10 +5119,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>31.5000</t>
   </si>
   <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -347,9 +356,6 @@
     <t>70.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -845,7 +851,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 8:56 PM</t>
+    <t>Saturday, 4 October, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1651,7 +1657,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1684,7 +1690,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1694,14 +1700,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1710,14 +1716,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1727,14 +1733,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1767,7 +1773,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1783,7 +1789,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1793,11 +1799,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1809,14 +1815,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1833,7 +1839,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1849,7 +1855,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1866,7 +1872,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1882,7 +1888,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1892,14 +1898,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1908,14 +1914,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1948,7 +1954,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1958,14 +1964,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1974,14 +1980,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1991,14 +1997,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2014,7 +2020,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2024,14 +2030,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2047,7 +2053,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2057,7 +2063,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2090,14 +2096,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2106,14 +2112,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2123,14 +2129,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2139,14 +2145,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2156,7 +2162,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2179,7 +2185,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2212,7 +2218,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2222,14 +2228,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2238,14 +2244,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2255,11 +2261,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2271,14 +2277,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2288,7 +2294,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2311,7 +2317,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2328,7 +2334,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2337,14 +2343,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2354,14 +2360,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2377,7 +2383,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2387,11 +2393,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2403,14 +2409,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2427,7 +2433,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2443,7 +2449,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,14 +2459,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2469,14 +2475,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2486,14 +2492,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2502,14 +2508,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2519,11 +2525,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2542,7 +2548,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2556,10 +2562,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2568,14 +2574,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2585,11 +2591,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2601,14 +2607,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2618,14 +2624,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2634,14 +2640,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2651,14 +2657,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2667,7 +2673,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2684,11 +2690,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2717,14 +2723,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2733,14 +2739,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2750,14 +2756,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2766,14 +2772,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2783,14 +2789,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2799,14 +2805,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2816,14 +2822,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2832,14 +2838,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2849,11 +2855,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2865,14 +2871,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2882,14 +2888,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2898,14 +2904,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2915,14 +2921,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2931,31 +2937,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2964,31 +2970,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2997,14 +3003,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,11 +3020,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3037,7 +3043,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,14 +3053,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3063,14 +3069,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3084,10 +3090,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3113,11 +3119,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3129,14 +3135,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3146,14 +3152,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3162,14 +3168,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3179,14 +3185,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3195,7 +3201,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3208,18 +3214,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3228,31 +3234,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3268,7 +3274,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3278,14 +3284,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3301,7 +3307,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,14 +3317,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3327,14 +3333,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,14 +3350,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3360,31 +3366,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3393,31 +3399,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3426,31 +3432,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3466,24 +3472,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3499,7 +3505,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3509,14 +3515,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3525,14 +3531,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,14 +3548,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,31 +3564,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3591,28 +3597,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3631,7 +3637,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3645,10 +3651,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3657,14 +3663,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3674,14 +3680,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3690,14 +3696,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,14 +3713,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3723,14 +3729,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,11 +3746,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3756,14 +3762,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,14 +3779,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,14 +3795,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,14 +3812,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3822,14 +3828,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3839,14 +3845,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3855,14 +3861,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3872,14 +3878,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3888,14 +3894,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,14 +3911,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3928,7 +3934,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3938,14 +3944,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3961,7 +3967,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3971,14 +3977,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3987,14 +3993,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4004,14 +4010,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,24 +4026,24 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4060,21 +4066,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4093,24 +4099,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4119,31 +4125,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4152,28 +4158,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4185,31 +4191,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>258</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4218,7 +4224,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4231,18 +4237,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4251,31 +4257,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>263</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4291,17 +4297,17 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4324,21 +4330,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>138</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4350,28 +4356,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4390,21 +4396,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4423,21 +4429,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4449,7 +4455,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4462,15 +4468,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4482,28 +4488,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4515,28 +4521,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4555,21 +4561,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>138</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4581,66 +4587,99 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>279</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>18</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>154</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>14</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q101" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5331.6149999999998</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>278</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>279</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5366.6149999999998</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
         <v>280</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>281</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>282</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5124,10 +5163,15 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -347,6 +347,18 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -368,9 +380,6 @@
     <t>EGY TOTAVIT SYRUP 100 ML</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>65.0000</t>
   </si>
   <si>
@@ -722,15 +731,12 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>4:2</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -788,10 +794,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>29:0</t>
+    <t>30:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -800,31 +803,37 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات لورد بالكيس </t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
     <t>8:0</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات لورد بالكيس </t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>قطن ازن صغير</t>
   </si>
   <si>
     <t>10.00</t>
@@ -2515,7 +2524,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2525,11 +2534,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2558,11 +2567,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2591,14 +2600,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2624,11 +2633,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2680,7 +2689,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2697,7 +2706,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2746,7 +2755,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2829,7 +2838,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2845,7 +2854,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2862,7 +2871,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2878,7 +2887,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2911,7 +2920,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2928,7 +2937,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2944,7 +2953,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2961,7 +2970,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2977,24 +2986,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3003,31 +3012,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3053,11 +3062,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3086,14 +3095,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3119,14 +3128,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3142,7 +3151,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3175,7 +3184,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3185,14 +3194,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3225,7 +3234,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3247,7 +3256,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3258,7 +3267,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3274,24 +3283,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3300,14 +3309,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3317,14 +3326,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3354,10 +3363,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3390,7 +3399,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3406,13 +3415,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3423,7 +3432,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3439,24 +3448,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3472,24 +3481,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3498,31 +3507,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3531,14 +3540,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3548,14 +3557,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3604,13 +3613,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3621,7 +3630,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3637,13 +3646,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3651,7 +3660,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3663,14 +3672,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3703,7 +3712,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3769,7 +3778,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3802,7 +3811,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,14 +3821,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3828,14 +3837,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3852,7 +3861,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3868,7 +3877,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3885,7 +3894,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3901,7 +3910,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3934,7 +3943,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3944,14 +3953,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3960,14 +3969,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4014,10 +4023,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4043,14 +4052,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,24 +4068,24 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4099,21 +4108,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4132,24 +4141,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4158,31 +4167,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4191,28 +4200,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4224,31 +4233,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>260</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4257,7 +4266,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4270,18 +4279,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4290,31 +4299,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>265</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4330,17 +4339,17 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4363,21 +4372,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4389,28 +4398,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4429,21 +4438,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4462,21 +4471,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4488,7 +4497,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4501,15 +4510,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4521,28 +4530,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4554,28 +4563,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4587,28 +4596,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4620,66 +4629,99 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>282</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>18</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>157</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>14</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q102" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5366.6149999999998</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>280</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>281</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>282</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5401.4449999999997</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>283</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>284</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>285</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5168,10 +5210,15 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -569,6 +569,15 @@
     <t>56.00</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -860,7 +869,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 8:58 PM</t>
+    <t>Saturday, 4 October, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3382,7 +3391,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3392,14 +3401,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3408,14 +3417,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3432,7 +3441,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3448,13 +3457,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3465,7 +3474,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3481,24 +3490,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3514,24 +3523,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3540,31 +3549,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3573,14 +3582,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,14 +3599,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3606,14 +3615,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,14 +3632,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3646,13 +3655,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3663,7 +3672,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3679,13 +3688,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3693,7 +3702,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3705,14 +3714,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3722,14 +3731,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3745,7 +3754,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,14 +3764,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3771,14 +3780,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,14 +3797,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3811,7 +3820,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3844,7 +3853,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>99</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3870,14 +3879,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3894,7 +3903,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3910,7 +3919,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3927,7 +3936,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3943,7 +3952,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3953,14 +3962,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3976,7 +3985,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3986,14 +3995,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4035,14 +4044,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4056,10 +4065,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4089,10 +4098,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4101,28 +4110,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4134,14 +4143,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4151,11 +4160,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4167,14 +4176,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4184,14 +4193,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4207,7 +4216,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4224,7 +4233,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4240,7 +4249,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4250,7 +4259,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4273,7 +4282,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4283,14 +4292,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>261</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4320,10 +4329,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>264</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>265</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4332,14 +4341,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4349,14 +4358,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4382,11 +4391,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4415,11 +4424,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>143</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4431,14 +4440,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4448,11 +4457,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4481,11 +4490,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4504,7 +4513,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4514,11 +4523,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>142</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4530,7 +4539,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4551,7 +4560,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4563,14 +4572,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4580,11 +4589,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4596,14 +4605,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4613,11 +4622,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4629,14 +4638,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4646,11 +4655,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4679,49 +4688,82 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>285</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>18</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>157</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>14</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q103" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5401.4449999999997</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>283</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>284</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>285</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5432.4449999999997</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>286</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>287</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>288</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5215,10 +5257,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -869,7 +869,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 9:01 PM</t>
+    <t>Saturday, 4 October, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -803,7 +803,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>30:0</t>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>37:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -869,7 +872,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 9:09 PM</t>
+    <t>Saturday, 4 October, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4329,10 +4332,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4341,7 +4344,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4358,14 +4361,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4374,7 +4377,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4395,7 +4398,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4407,7 +4410,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4428,7 +4431,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4440,7 +4443,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4473,14 +4476,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4506,14 +4509,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4523,7 +4526,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4539,7 +4542,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4560,7 +4563,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4572,7 +4575,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4593,7 +4596,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4605,7 +4608,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4638,7 +4641,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4659,7 +4662,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4671,7 +4674,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4704,7 +4707,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4733,13 +4736,13 @@
     </row>
     <row r="105" ht="24.75" customHeight="1">
       <c r="P105" s="13">
-        <v>5432.4449999999997</v>
+        <v>5446.4449999999997</v>
       </c>
       <c r="Q105" s="13"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
       <c t="s" r="A106" s="14">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -4747,13 +4750,13 @@
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
       <c t="s" r="G106" s="15">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
       <c r="J106" s="16"/>
       <c t="s" r="K106" s="17">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -401,15 +401,6 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>FANGRARE SHOWER GEL 200 ML</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -797,6 +788,9 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>ريكسونا اسبراي</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -872,7 +866,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 9:11 PM</t>
+    <t>Saturday, 4 October, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2767,7 +2761,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2777,14 +2771,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2793,14 +2787,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2810,14 +2804,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2826,14 +2820,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2850,7 +2844,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2866,7 +2860,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2883,7 +2877,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2899,7 +2893,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2932,7 +2926,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2949,7 +2943,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2965,7 +2959,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2982,7 +2976,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2998,24 +2992,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3024,31 +3018,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3057,14 +3051,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3074,11 +3068,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3090,14 +3084,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3107,14 +3101,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3130,7 +3124,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3140,14 +3134,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3163,7 +3157,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3196,7 +3190,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3206,14 +3200,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3222,14 +3216,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3246,7 +3240,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3268,7 +3262,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3279,7 +3273,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3295,24 +3289,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3321,14 +3315,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3338,14 +3332,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3354,14 +3348,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3371,14 +3365,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3394,7 +3388,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3404,14 +3398,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3420,14 +3414,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3444,7 +3438,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3460,13 +3454,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3477,7 +3471,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3493,24 +3487,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3526,24 +3520,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3552,31 +3546,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3585,14 +3579,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3602,14 +3596,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3618,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3635,14 +3629,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3658,13 +3652,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3675,7 +3669,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3691,13 +3685,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3705,7 +3699,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3717,14 +3711,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3734,14 +3728,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3757,7 +3751,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3767,14 +3761,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3783,14 +3777,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3800,14 +3794,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3823,7 +3817,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3856,7 +3850,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3866,14 +3860,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3882,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3906,7 +3900,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3922,7 +3916,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3939,7 +3933,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3955,7 +3949,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3965,14 +3959,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3988,7 +3982,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3998,14 +3992,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4014,14 +4008,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4031,14 +4025,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4047,14 +4041,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4068,10 +4062,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4101,10 +4095,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4113,28 +4107,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4146,28 +4140,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4179,31 +4173,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>51</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4219,13 +4213,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4236,7 +4230,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4252,17 +4246,17 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4285,21 +4279,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4311,7 +4305,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4324,18 +4318,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4344,7 +4338,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4357,18 +4351,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4377,28 +4371,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4410,28 +4404,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4443,7 +4437,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4456,15 +4450,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4476,28 +4470,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4509,28 +4503,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4542,7 +4536,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4555,15 +4549,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4575,7 +4569,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4588,15 +4582,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4608,7 +4602,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4621,15 +4615,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4641,20 +4635,20 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4662,7 +4656,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4674,7 +4668,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4687,15 +4681,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4707,7 +4701,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4720,7 +4714,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4736,13 +4730,13 @@
     </row>
     <row r="105" ht="24.75" customHeight="1">
       <c r="P105" s="13">
-        <v>5446.4449999999997</v>
+        <v>5406.4449999999997</v>
       </c>
       <c r="Q105" s="13"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
       <c t="s" r="A106" s="14">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -4750,13 +4744,13 @@
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
       <c t="s" r="G106" s="15">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
       <c r="J106" s="16"/>
       <c t="s" r="K106" s="17">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -866,7 +866,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 9:26 PM</t>
+    <t>Saturday, 4 October, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -656,6 +656,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>SYNOBAR SOAP 100 GM</t>
   </si>
   <si>
@@ -725,9 +734,6 @@
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -797,10 +803,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>37:0</t>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>38:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -866,7 +872,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 9:33 PM</t>
+    <t>Saturday, 4 October, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3751,7 +3757,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3761,14 +3767,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3777,14 +3783,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3794,14 +3800,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3817,7 +3823,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3850,7 +3856,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>99</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,14 +3866,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3876,14 +3882,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3900,7 +3906,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3916,7 +3922,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3933,7 +3939,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3949,7 +3955,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3959,14 +3965,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3982,7 +3988,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3992,14 +3998,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4008,14 +4014,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4025,14 +4031,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4041,14 +4047,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4058,14 +4064,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4074,14 +4080,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4091,14 +4097,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4107,24 +4113,24 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4147,7 +4153,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4157,11 +4163,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4180,7 +4186,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4190,14 +4196,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4206,14 +4212,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4223,14 +4229,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4239,14 +4245,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4256,11 +4262,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4272,14 +4278,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4289,11 +4295,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4305,14 +4311,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4322,14 +4328,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>19</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4338,7 +4344,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4355,14 +4361,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4371,14 +4377,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4388,14 +4394,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>269</v>
-      </c>
-      <c t="s" r="Q94" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4411,7 +4417,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4421,7 +4427,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4444,7 +4450,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4454,11 +4460,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4470,14 +4476,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4487,11 +4493,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4520,11 +4526,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4536,14 +4542,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4553,11 +4559,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>139</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4569,7 +4575,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4590,7 +4596,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4602,14 +4608,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4619,11 +4625,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4635,14 +4641,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4652,11 +4658,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4675,7 +4681,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4685,11 +4691,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4701,14 +4707,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4718,49 +4724,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>286</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>18</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>154</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>14</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q104" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5406.4449999999997</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>285</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>286</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5421.3149999999996</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
         <v>287</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>288</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>289</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5259,10 +5298,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>159.0000</t>
   </si>
   <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -236,6 +245,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CETAL SINUS 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -251,9 +269,6 @@
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
-    <t>22.7700</t>
-  </si>
-  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -308,9 +323,6 @@
     <t>54.4500</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -326,9 +338,6 @@
     <t>9:3</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -506,9 +515,6 @@
     <t>18.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>LELIPEL 5 MG 20 CHEW. TABS.</t>
   </si>
   <si>
@@ -656,6 +662,9 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>SAFE TOP SYRUP</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -872,7 +881,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 9:36 PM</t>
+    <t>Saturday, 4 October, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2084,7 +2093,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2107,7 +2116,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2117,7 +2126,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2150,14 +2159,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2166,14 +2175,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2183,11 +2192,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2199,14 +2208,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2216,14 +2225,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2232,14 +2241,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2249,11 +2258,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2265,14 +2274,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2282,14 +2291,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2298,14 +2307,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2315,14 +2324,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2331,14 +2340,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2371,7 +2380,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2381,14 +2390,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2397,14 +2406,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2414,14 +2423,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2430,14 +2439,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2447,14 +2456,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2463,14 +2472,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2480,14 +2489,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2496,14 +2505,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2513,14 +2522,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2529,14 +2538,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2546,14 +2555,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2562,14 +2571,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2579,14 +2588,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2612,11 +2621,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2635,7 +2644,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2678,14 +2687,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2694,14 +2703,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2727,7 +2736,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2744,11 +2753,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>133</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2810,11 +2819,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2843,14 +2852,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2876,11 +2885,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2975,11 +2984,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2991,7 +3000,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3004,18 +3013,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3024,14 +3033,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3041,11 +3050,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3057,31 +3066,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3097,7 +3106,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3123,7 +3132,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3140,11 +3149,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3156,14 +3165,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3173,14 +3182,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3222,14 +3231,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3239,11 +3248,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3255,28 +3264,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3288,14 +3297,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3305,11 +3314,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3321,28 +3330,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3354,14 +3363,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3371,11 +3380,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3387,14 +3396,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3404,14 +3413,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3420,14 +3429,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3437,14 +3446,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3453,31 +3462,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3486,14 +3495,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3503,11 +3512,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3519,28 +3528,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3569,11 +3578,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3585,28 +3594,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3618,14 +3627,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3635,11 +3644,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3651,28 +3660,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3684,14 +3693,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3717,31 +3726,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3783,14 +3792,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3800,14 +3809,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3816,31 +3825,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3849,14 +3858,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3866,11 +3875,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3899,11 +3908,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3932,11 +3941,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3948,14 +3957,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3965,14 +3974,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3998,14 +4007,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4014,14 +4023,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4031,14 +4040,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4047,7 +4056,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4080,14 +4089,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4097,14 +4106,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4130,14 +4139,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4146,28 +4155,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4179,31 +4188,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4212,31 +4221,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4245,28 +4254,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4278,28 +4287,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4311,31 +4320,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4344,7 +4353,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4357,18 +4366,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>265</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4377,31 +4386,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>269</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4410,28 +4419,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4443,31 +4452,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4476,31 +4485,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4509,28 +4518,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4542,28 +4551,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>142</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4575,28 +4584,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4608,28 +4617,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4641,28 +4650,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>51</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4681,21 +4690,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4707,28 +4716,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4740,66 +4749,165 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>286</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>248</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>157</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>121</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>288</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>22</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>157</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>213</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>289</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>18</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>157</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>14</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5421.3149999999996</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>287</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>288</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>289</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5527.085</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>290</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>291</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>292</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5303,10 +5411,25 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ADWIFLAM 50MG E.R. 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AGERA ACNE CREAM 50 GM</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>12.5000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -230,9 +242,6 @@
     <t>CETAFEN 30 TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>22.7700</t>
   </si>
   <si>
@@ -665,6 +674,15 @@
     <t>SAFE TOP SYRUP</t>
   </si>
   <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -881,7 +899,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 9:37 PM</t>
+    <t>Saturday, 4 October, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1572,7 +1590,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1581,14 +1599,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1598,14 +1616,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1638,7 +1656,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1654,7 +1672,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1664,11 +1682,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1680,14 +1698,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1697,11 +1715,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1713,14 +1731,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1730,11 +1748,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1746,14 +1764,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1770,7 +1788,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1779,14 +1797,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1803,7 +1821,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1812,7 +1830,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1829,14 +1847,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1845,14 +1863,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1885,7 +1903,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1895,14 +1913,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1911,14 +1929,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1928,14 +1946,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1944,14 +1962,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1968,7 +1986,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1984,7 +2002,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1994,14 +2012,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2010,14 +2028,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2027,14 +2045,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2043,14 +2061,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2060,14 +2078,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2076,14 +2094,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2126,14 +2144,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2149,7 +2167,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2159,14 +2177,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2182,7 +2200,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2199,7 +2217,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2215,7 +2233,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2225,14 +2243,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2258,14 +2276,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2291,14 +2309,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2314,7 +2332,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2331,7 +2349,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2347,7 +2365,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2357,14 +2375,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2390,11 +2408,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2423,7 +2441,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2446,7 +2464,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2463,7 +2481,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2479,7 +2497,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2496,7 +2514,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2512,7 +2530,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2522,14 +2540,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2545,7 +2563,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2578,7 +2596,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2588,14 +2606,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2604,14 +2622,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2621,14 +2639,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2654,14 +2672,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2720,14 +2738,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2753,11 +2771,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2786,14 +2804,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2809,7 +2827,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2826,7 +2844,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2842,7 +2860,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2852,14 +2870,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2925,7 +2943,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2941,7 +2959,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2958,7 +2976,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2974,7 +2992,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3007,7 +3025,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3024,7 +3042,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3040,7 +3058,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3057,7 +3075,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3073,24 +3091,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3099,31 +3117,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3149,11 +3167,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3165,14 +3183,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3182,14 +3200,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3205,7 +3223,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3215,14 +3233,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3231,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3248,11 +3266,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3271,7 +3289,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3281,14 +3299,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3297,14 +3315,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3321,7 +3339,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3343,7 +3361,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3354,7 +3372,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3370,24 +3388,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3396,14 +3414,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3413,14 +3431,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3429,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3446,14 +3464,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3469,7 +3487,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3479,14 +3497,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3495,14 +3513,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3519,7 +3537,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3535,13 +3553,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3552,7 +3570,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3568,24 +3586,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3601,24 +3619,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3627,31 +3645,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3660,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3677,14 +3695,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3693,14 +3711,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3710,14 +3728,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3733,13 +3751,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3750,7 +3768,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3766,13 +3784,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3780,7 +3798,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3792,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3809,14 +3827,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3832,24 +3850,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3858,31 +3876,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3908,11 +3926,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3924,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3941,14 +3959,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3957,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3974,14 +3992,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3997,7 +4015,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4007,14 +4025,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4023,14 +4041,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4040,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4056,14 +4074,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4096,7 +4114,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4106,14 +4124,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4129,7 +4147,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4139,14 +4157,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4155,14 +4173,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4172,14 +4190,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4188,14 +4206,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4205,14 +4223,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4221,14 +4239,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4238,11 +4256,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4254,31 +4272,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4300,15 +4318,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4320,31 +4338,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4353,28 +4371,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4393,24 +4411,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>55</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4426,21 +4444,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4452,31 +4470,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>268</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4485,31 +4503,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4518,31 +4536,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>274</v>
-      </c>
-      <c t="s" r="Q98" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4558,24 +4576,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4584,28 +4602,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4617,28 +4635,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4650,28 +4668,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4683,28 +4701,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4716,28 +4734,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>142</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4749,28 +4767,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4782,28 +4800,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4815,28 +4833,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4848,66 +4866,132 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>294</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>27</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>160</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>216</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>295</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>23</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>160</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>14</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5527.085</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>290</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>291</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>292</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5592.8050000000003</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>296</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>297</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>298</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5426,10 +5510,20 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -65,42 +65,42 @@
     <t>ADWIFLAM 50MG E.R. 30 CAPS.</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AGERA ACNE CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AGERA ACNE CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 500 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -263,6 +263,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -899,7 +908,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 9:47 PM</t>
+    <t>Saturday, 4 October, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1606,7 +1615,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1616,11 +1625,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1649,14 +1658,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1705,7 +1714,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1738,7 +1747,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1854,7 +1863,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1953,7 +1962,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1969,7 +1978,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2019,7 +2028,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2035,7 +2044,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2052,7 +2061,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2118,7 +2127,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2151,7 +2160,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2184,7 +2193,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2200,7 +2209,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2217,7 +2226,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2250,7 +2259,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2266,7 +2275,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2276,14 +2285,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2325,7 +2334,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2365,7 +2374,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2382,7 +2391,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2398,7 +2407,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2408,14 +2417,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2441,11 +2450,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2474,7 +2483,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2497,7 +2506,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2514,7 +2523,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2530,7 +2539,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2547,7 +2556,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2563,7 +2572,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2596,7 +2605,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2629,7 +2638,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2705,14 +2714,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2721,14 +2730,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2754,14 +2763,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2771,14 +2780,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2794,7 +2803,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2804,11 +2813,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2820,14 +2829,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2837,14 +2846,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2860,7 +2869,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2877,7 +2886,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2893,7 +2902,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2903,14 +2912,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2919,14 +2928,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2936,14 +2945,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2976,7 +2985,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2992,7 +3001,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3009,7 +3018,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3025,7 +3034,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3058,7 +3067,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3075,7 +3084,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3091,7 +3100,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3108,7 +3117,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3124,24 +3133,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3150,31 +3159,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3183,14 +3192,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,11 +3209,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3216,14 +3225,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3256,7 +3265,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3266,14 +3275,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3299,11 +3308,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3322,7 +3331,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3332,14 +3341,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3348,14 +3357,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3372,7 +3381,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3394,7 +3403,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3405,7 +3414,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3421,24 +3430,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3447,14 +3456,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3464,14 +3473,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3497,14 +3506,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3520,7 +3529,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,14 +3539,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3546,14 +3555,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3570,7 +3579,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3586,13 +3595,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3603,7 +3612,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3619,24 +3628,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3652,24 +3661,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3678,31 +3687,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3711,14 +3720,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,14 +3737,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3744,14 +3753,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3761,14 +3770,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3784,13 +3793,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3801,7 +3810,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3817,13 +3826,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3831,7 +3840,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3843,14 +3852,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,14 +3869,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3883,24 +3892,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3909,7 +3918,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3922,15 +3931,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3949,7 +3958,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3966,7 +3975,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3982,7 +3991,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,14 +4001,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4008,14 +4017,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,14 +4034,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4048,7 +4057,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4065,7 +4074,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4081,7 +4090,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4091,14 +4100,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4107,14 +4116,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4131,7 +4140,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4147,7 +4156,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4164,7 +4173,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4180,7 +4189,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,14 +4199,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4213,7 +4222,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,14 +4232,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4239,14 +4248,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4256,14 +4265,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4272,14 +4281,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,14 +4298,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4326,10 +4335,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4338,28 +4347,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4371,28 +4380,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4404,31 +4413,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4444,13 +4453,13 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4461,7 +4470,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4477,17 +4486,17 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4510,21 +4519,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4536,31 +4545,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>274</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4569,31 +4578,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>277</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>278</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4602,31 +4611,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4635,28 +4644,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4668,28 +4677,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>146</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4701,28 +4710,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4734,28 +4743,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4774,21 +4783,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>145</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4800,28 +4809,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4833,28 +4842,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>185</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4866,28 +4875,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>254</v>
+        <v>55</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4899,28 +4908,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4932,66 +4941,99 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>298</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>18</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>163</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>14</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q110" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5592.8050000000003</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>296</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>297</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>298</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5655.8050000000003</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>299</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>300</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>301</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5520,10 +5562,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CYMBATEX 30 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>75.2400</t>
+  </si>
+  <si>
     <t>DAKTACORT CREAM 15 GM</t>
   </si>
   <si>
@@ -386,6 +395,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -512,6 +530,15 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
+    <t>JOINTA 30 TABS</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>112.2000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -779,6 +806,12 @@
     <t>51.00</t>
   </si>
   <si>
+    <t>VONASPIRE 20MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -908,7 +941,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 9:56 PM</t>
+    <t>Saturday, 4 October, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2473,7 +2506,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2483,14 +2516,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2499,14 +2532,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2516,7 +2549,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2539,7 +2572,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2556,7 +2589,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2572,7 +2605,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2589,7 +2622,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2605,7 +2638,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2615,7 +2648,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2638,7 +2671,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2648,14 +2681,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2671,7 +2704,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2681,14 +2714,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2697,14 +2730,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2714,14 +2747,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2730,14 +2763,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2747,11 +2780,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2763,14 +2796,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2780,11 +2813,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2796,14 +2829,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2813,14 +2846,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2829,14 +2862,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2846,14 +2879,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2862,14 +2895,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2879,14 +2912,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2895,7 +2928,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2912,7 +2945,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2935,7 +2968,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2945,14 +2978,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>142</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2961,14 +2994,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2978,11 +3011,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2994,14 +3027,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3011,14 +3044,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>47</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3027,14 +3060,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3067,7 +3100,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3084,7 +3117,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3100,7 +3133,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3117,7 +3150,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3133,7 +3166,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3172,18 +3205,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3192,14 +3225,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3209,11 +3242,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3225,31 +3258,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3258,14 +3291,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3275,14 +3308,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3291,14 +3324,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3308,14 +3341,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3324,14 +3357,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3341,11 +3374,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3357,14 +3390,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3374,14 +3407,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3397,7 +3430,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3411,7 +3444,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3423,31 +3456,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3456,14 +3489,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3473,14 +3506,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3489,14 +3522,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3506,14 +3539,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3522,31 +3555,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3555,14 +3588,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3572,14 +3605,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3595,7 +3628,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3609,7 +3642,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3621,28 +3654,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3654,14 +3687,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3671,14 +3704,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3694,24 +3727,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3720,31 +3753,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3753,14 +3786,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3770,14 +3803,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3786,31 +3819,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3819,31 +3852,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3852,14 +3885,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3869,11 +3902,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3885,14 +3918,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3902,11 +3935,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>29</v>
@@ -3918,28 +3951,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3951,14 +3984,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3968,11 +4001,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3984,14 +4017,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4001,11 +4034,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>29</v>
@@ -4017,7 +4050,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4030,15 +4063,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4050,14 +4083,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4067,14 +4100,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4083,14 +4116,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4100,11 +4133,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>29</v>
@@ -4116,14 +4149,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4133,11 +4166,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4149,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4166,11 +4199,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>29</v>
@@ -4182,14 +4215,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4199,14 +4232,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4215,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,14 +4265,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4255,7 +4288,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,14 +4298,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4281,7 +4314,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4298,11 +4331,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4314,14 +4347,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4331,14 +4364,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4347,14 +4380,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4364,14 +4397,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4380,28 +4413,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4426,18 +4459,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4446,31 +4479,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4486,21 +4519,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4512,24 +4545,24 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4552,21 +4585,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4578,31 +4611,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>277</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4624,7 +4657,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4635,7 +4668,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>281</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4644,24 +4677,24 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4684,21 +4717,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4710,31 +4743,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4743,31 +4776,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4776,28 +4809,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4809,28 +4842,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4842,28 +4875,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4875,28 +4908,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>55</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4908,28 +4941,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4941,28 +4974,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4974,7 +5007,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -4987,53 +5020,185 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>305</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>55</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>169</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>180</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>306</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>268</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>169</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>133</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>308</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>26</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>169</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>228</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>309</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>18</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>169</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>14</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5655.8050000000003</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>299</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>300</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>301</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>5948.2449999999999</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>310</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>311</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>312</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5567,10 +5732,30 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -308,13 +308,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t>CYMBATEX 30 MG 30 CAPS.</t>
@@ -377,6 +377,18 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -449,9 +461,6 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -686,9 +695,6 @@
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
     <t>85.0000</t>
   </si>
   <si>
@@ -872,10 +878,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>38:0</t>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>39:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -941,7 +947,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:03 PM</t>
+    <t>Saturday, 4 October, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2490,7 +2496,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2737,7 +2743,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2747,14 +2753,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2763,14 +2769,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2780,14 +2786,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2803,7 +2809,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2813,11 +2819,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2829,14 +2835,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2846,11 +2852,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2862,14 +2868,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2879,11 +2885,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2895,14 +2901,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2912,14 +2918,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2928,14 +2934,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2945,11 +2951,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2961,14 +2967,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2978,14 +2984,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2994,14 +3000,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3011,14 +3017,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3027,14 +3033,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3044,14 +3050,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3067,7 +3073,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3077,14 +3083,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3093,14 +3099,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3117,7 +3123,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3133,7 +3139,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3150,7 +3156,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3166,7 +3172,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3199,7 +3205,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3216,7 +3222,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3232,7 +3238,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3249,7 +3255,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3265,24 +3271,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3291,31 +3297,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3324,14 +3330,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3341,14 +3347,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3364,7 +3370,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3374,14 +3380,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3390,14 +3396,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3407,14 +3413,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3430,7 +3436,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3440,14 +3446,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3456,14 +3462,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3473,11 +3479,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3496,7 +3502,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3506,14 +3512,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3522,14 +3528,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3546,7 +3552,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3568,7 +3574,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3579,7 +3585,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3595,24 +3601,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3621,14 +3627,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3638,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3654,14 +3660,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3671,14 +3677,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3694,7 +3700,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3704,14 +3710,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3720,14 +3726,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3744,7 +3750,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3760,13 +3766,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3777,7 +3783,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3793,24 +3799,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3826,24 +3832,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3852,31 +3858,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3885,14 +3891,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3902,14 +3908,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3918,14 +3924,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3935,14 +3941,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3958,13 +3964,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3975,7 +3981,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3991,21 +3997,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4024,7 +4030,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4038,10 +4044,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4050,31 +4056,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4083,7 +4089,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4096,15 +4102,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4116,14 +4122,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4133,14 +4139,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4149,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,14 +4172,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4182,14 +4188,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,14 +4205,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4215,14 +4221,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,11 +4238,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>29</v>
@@ -4248,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,14 +4271,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4281,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4298,14 +4304,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4314,14 +4320,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,14 +4337,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4347,14 +4353,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,14 +4370,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4380,14 +4386,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4397,14 +4403,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4420,7 +4426,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4430,14 +4436,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4446,14 +4452,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4463,14 +4469,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4479,14 +4485,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4500,10 +4506,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4519,7 +4525,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4529,14 +4535,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4545,24 +4551,24 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4585,21 +4591,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4618,24 +4624,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>55</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4644,31 +4650,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4677,28 +4683,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4710,28 +4716,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4743,31 +4749,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>23</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4776,7 +4782,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4789,18 +4795,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4809,31 +4815,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>294</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4849,17 +4855,17 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>154</v>
+        <v>278</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4882,21 +4888,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4908,28 +4914,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4954,15 +4960,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4974,28 +4980,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5007,7 +5013,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5020,15 +5026,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5040,28 +5046,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>197</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5073,28 +5079,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5113,21 +5119,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5139,66 +5145,99 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>311</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>18</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>172</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>14</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>5948.2449999999999</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>310</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>311</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6000.2449999999999</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
         <v>312</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>313</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>314</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5752,10 +5791,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>BABY NADIF NASAL SPRAY 50 ML</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>390.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -947,7 +956,10 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:06 PM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>Saturday, 4 October, 2025 10:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1852,7 +1864,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1862,14 +1874,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1878,14 +1890,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1895,14 +1907,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>50</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1935,7 +1947,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1951,7 +1963,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1961,11 +1973,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1977,14 +1989,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2001,7 +2013,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2017,7 +2029,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2034,7 +2046,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2050,7 +2062,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2060,14 +2072,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2116,7 +2128,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2126,14 +2138,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2142,14 +2154,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2159,14 +2171,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2182,7 +2194,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2192,14 +2204,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2208,14 +2220,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2225,7 +2237,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2248,7 +2260,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2258,7 +2270,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2281,7 +2293,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2298,7 +2310,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2314,7 +2326,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2331,7 +2343,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2357,14 +2369,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2373,14 +2385,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2390,14 +2402,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2406,14 +2418,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2423,11 +2435,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -2446,7 +2458,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2479,7 +2491,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2489,14 +2501,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2505,14 +2517,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2529,7 +2541,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2545,7 +2557,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2555,14 +2567,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2571,14 +2583,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2588,7 +2600,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2611,7 +2623,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2628,7 +2640,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2644,7 +2656,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2661,7 +2673,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2677,7 +2689,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2687,7 +2699,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2710,7 +2722,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2720,14 +2732,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2743,7 +2755,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2753,14 +2765,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2769,14 +2781,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2786,14 +2798,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2819,14 +2831,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2835,14 +2847,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2875,7 +2887,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2885,11 +2897,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2901,14 +2913,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2918,11 +2930,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2951,14 +2963,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2974,7 +2986,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2984,11 +2996,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3017,14 +3029,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3040,7 +3052,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3057,7 +3069,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3073,7 +3085,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3083,14 +3095,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3106,7 +3118,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3132,14 +3144,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3156,7 +3168,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3172,7 +3184,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3189,7 +3201,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3205,7 +3217,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3238,7 +3250,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3255,7 +3267,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3271,7 +3283,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3288,7 +3300,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3304,24 +3316,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3330,31 +3342,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3380,14 +3392,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3403,7 +3415,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3413,14 +3425,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3429,14 +3441,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3446,14 +3458,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3469,7 +3481,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3479,14 +3491,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3495,14 +3507,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3512,11 +3524,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3535,7 +3547,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3545,14 +3557,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3561,14 +3573,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3585,7 +3597,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3607,7 +3619,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3618,7 +3630,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3634,24 +3646,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3660,14 +3672,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3677,14 +3689,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3693,14 +3705,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3710,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3733,7 +3745,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3743,14 +3755,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3759,14 +3771,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3783,7 +3795,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3799,13 +3811,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3816,7 +3828,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3832,24 +3844,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3865,24 +3877,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3891,31 +3903,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3924,14 +3936,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,14 +3953,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3957,14 +3969,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3974,14 +3986,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3997,24 +4009,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,28 +4035,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4056,14 +4068,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4073,14 +4085,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4096,24 +4108,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4122,7 +4134,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4135,15 +4147,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4162,7 +4174,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4179,7 +4191,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4195,7 +4207,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,14 +4217,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,14 +4250,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4261,7 +4273,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4294,7 +4306,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4320,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4344,7 +4356,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4360,7 +4372,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4377,7 +4389,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4393,7 +4405,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,14 +4415,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4426,7 +4438,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4452,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4469,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4485,14 +4497,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,14 +4514,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4525,7 +4537,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4547,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4572,10 +4584,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4584,28 +4596,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4617,28 +4629,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4650,31 +4662,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4690,13 +4702,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4707,7 +4719,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4723,17 +4735,17 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4756,21 +4768,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4782,31 +4794,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>23</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>290</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,7 +4827,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4828,18 +4840,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>293</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>294</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4848,31 +4860,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4881,28 +4893,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4914,28 +4926,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>158</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4947,28 +4959,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4980,28 +4992,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5020,21 +5032,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5046,7 +5058,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5059,15 +5071,15 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5079,28 +5091,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5112,28 +5124,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>270</v>
+        <v>58</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5145,28 +5157,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>158</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5178,66 +5190,132 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>314</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>18</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>175</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>14</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6000.2449999999999</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>312</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>313</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>314</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>315</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>304</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>175</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>150</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6435.2449999999999</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>316</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>317</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>318</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5796,10 +5874,20 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -140,15 +140,6 @@
     <t>128.0000</t>
   </si>
   <si>
-    <t>BABY NADIF NASAL SPRAY 50 ML</t>
-  </si>
-  <si>
-    <t>390.00</t>
-  </si>
-  <si>
-    <t>390.0000</t>
-  </si>
-  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -959,7 +950,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:09 PM</t>
+    <t>Saturday, 4 October, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1864,7 +1855,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1874,14 +1865,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1890,14 +1881,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1907,14 +1898,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1947,7 +1938,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1963,7 +1954,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1973,11 +1964,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1989,14 +1980,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2013,7 +2004,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2029,7 +2020,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2046,7 +2037,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2062,7 +2053,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2072,14 +2063,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2088,14 +2079,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2128,7 +2119,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2138,14 +2129,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2154,14 +2145,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2171,14 +2162,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2194,7 +2185,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2204,14 +2195,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2220,14 +2211,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2237,7 +2228,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2260,7 +2251,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2270,7 +2261,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2293,7 +2284,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2310,7 +2301,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2326,7 +2317,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2343,7 +2334,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2369,14 +2360,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2385,14 +2376,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2402,14 +2393,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2418,14 +2409,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2435,11 +2426,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -2458,7 +2449,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2491,7 +2482,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2501,14 +2492,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2517,14 +2508,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2541,7 +2532,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2557,7 +2548,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2567,14 +2558,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2583,14 +2574,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2600,7 +2591,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2623,7 +2614,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2640,7 +2631,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2656,7 +2647,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2673,7 +2664,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2689,7 +2680,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2699,7 +2690,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2722,7 +2713,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2732,14 +2723,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2755,7 +2746,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2765,14 +2756,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2781,14 +2772,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2798,14 +2789,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2814,14 +2805,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2831,14 +2822,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2847,14 +2838,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2887,7 +2878,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2897,11 +2888,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2913,14 +2904,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2930,11 +2921,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2946,14 +2937,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2963,14 +2954,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2986,7 +2977,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2996,11 +2987,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3012,14 +3003,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3029,14 +3020,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3052,7 +3043,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3069,7 +3060,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3085,7 +3076,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3095,14 +3086,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3118,7 +3109,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3128,14 +3119,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3144,14 +3135,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3168,7 +3159,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3184,7 +3175,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3201,7 +3192,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3217,7 +3208,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3250,7 +3241,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3267,7 +3258,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3283,7 +3274,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3300,7 +3291,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3316,24 +3307,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3342,31 +3333,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3375,14 +3366,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3392,14 +3383,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3415,7 +3406,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3425,14 +3416,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3441,14 +3432,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3458,14 +3449,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3481,7 +3472,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3491,14 +3482,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3507,14 +3498,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3524,11 +3515,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3547,7 +3538,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3557,14 +3548,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3573,14 +3564,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3597,7 +3588,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3619,7 +3610,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3630,7 +3621,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3646,24 +3637,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3672,14 +3663,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3689,14 +3680,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3705,14 +3696,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,14 +3713,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3745,7 +3736,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3755,14 +3746,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,14 +3762,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3795,7 +3786,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3811,13 +3802,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3828,7 +3819,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3844,24 +3835,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3877,24 +3868,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,31 +3894,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3927,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,14 +3944,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3969,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3986,14 +3977,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4009,24 +4000,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4035,28 +4026,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4068,14 +4059,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4085,14 +4076,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4108,24 +4099,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4134,7 +4125,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4147,15 +4138,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4174,7 +4165,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4191,7 +4182,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4207,7 +4198,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,14 +4208,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4233,14 +4224,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4241,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4273,7 +4264,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4306,7 +4297,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,14 +4307,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4332,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4356,7 +4347,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4372,7 +4363,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4389,7 +4380,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4405,7 +4396,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4415,14 +4406,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>100</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4438,7 +4429,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,14 +4439,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4464,14 +4455,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,14 +4472,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4497,14 +4488,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,14 +4505,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4537,7 +4528,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4538,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4563,14 +4554,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4584,10 +4575,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4596,28 +4587,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4629,28 +4620,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4662,31 +4653,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4702,13 +4693,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4719,7 +4710,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4735,17 +4726,17 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4768,21 +4759,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4794,31 +4785,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4827,7 +4818,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4840,18 +4831,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4860,31 +4851,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>297</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,28 +4884,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>281</v>
+        <v>157</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4926,28 +4917,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4959,28 +4950,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4992,28 +4983,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5032,21 +5023,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5058,7 +5049,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5071,15 +5062,15 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5091,28 +5082,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5124,28 +5115,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>58</v>
+        <v>270</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>203</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5157,28 +5148,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5190,28 +5181,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5223,99 +5214,66 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="A118" s="7">
-        <v>112</v>
-      </c>
-      <c r="B118" s="7"/>
-      <c t="s" r="C118" s="8">
+      <c r="P118" s="13">
+        <v>6045.2449999999999</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>313</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>314</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
         <v>315</v>
       </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c t="s" r="H118" s="9">
-        <v>304</v>
-      </c>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c t="s" r="L118" s="10">
-        <v>175</v>
-      </c>
-      <c r="M118" s="10"/>
-      <c t="s" r="N118" s="8">
-        <v>150</v>
-      </c>
-      <c r="O118" s="8"/>
-      <c t="s" r="P118" s="11">
-        <v>151</v>
-      </c>
-      <c t="s" r="Q118" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6435.2449999999999</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>316</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>317</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>318</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5879,15 +5837,10 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="L118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -950,7 +950,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:11 PM</t>
+    <t>Saturday, 4 October, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -437,108 +437,111 @@
     <t>EGY TOTAVIT SYRUP 100 ML</t>
   </si>
   <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>EXTRA CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>ICANDRA PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>ISOTRETINOIN 20MG 30CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>245.5200</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>65.0000</t>
   </si>
   <si>
-    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>EXTRA CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>ICANDRA PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>147.0000</t>
-  </si>
-  <si>
-    <t>ISOTRETINOIN 20MG 30CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>372.00</t>
-  </si>
-  <si>
-    <t>245.5200</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
     <t>JOINTA 30 TABS</t>
   </si>
   <si>
@@ -857,9 +860,6 @@
     <t>130.00</t>
   </si>
   <si>
-    <t>130.0000</t>
-  </si>
-  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -950,7 +950,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:16 PM</t>
+    <t>Saturday, 4 October, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2994,7 +2994,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3383,11 +3383,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>29</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3432,14 +3432,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3515,11 +3515,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3531,14 +3531,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3548,11 +3548,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3581,11 +3581,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3614,11 +3614,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3647,11 +3647,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3713,11 +3713,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3729,14 +3729,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3746,11 +3746,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3779,11 +3779,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3812,11 +3812,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3828,14 +3828,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3845,11 +3845,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3894,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3977,11 +3977,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>29</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4076,11 +4076,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>29</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4158,14 +4158,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4175,11 +4175,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>29</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4241,11 +4241,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>29</v>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4274,11 +4274,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>29</v>
@@ -4290,14 +4290,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,11 +4307,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4340,11 +4340,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4373,11 +4373,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4389,14 +4389,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>29</v>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>55</v>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4472,11 +4472,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4488,14 +4488,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4505,11 +4505,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4538,11 +4538,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>29</v>
@@ -4554,14 +4554,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4571,11 +4571,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4587,14 +4587,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4620,14 +4620,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4670,11 +4670,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>55</v>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4703,11 +4703,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -4967,11 +4967,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5099,11 +5099,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5122,7 +5122,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5243,7 +5243,7 @@
     </row>
     <row r="118" ht="24.75" customHeight="1">
       <c r="P118" s="13">
-        <v>6045.2449999999999</v>
+        <v>6110.2449999999999</v>
       </c>
       <c r="Q118" s="13"/>
     </row>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>AGERA ACNE CREAM 50 GM</t>
   </si>
   <si>
@@ -86,21 +101,30 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
     <t>12.5000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -209,9 +233,6 @@
     <t>1:5</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>7.9200</t>
   </si>
   <si>
@@ -419,6 +440,15 @@
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -440,6 +470,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>EMPACOZA 10 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -464,9 +503,6 @@
     <t>15.8400</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -554,9 +590,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -629,9 +662,6 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -680,9 +710,6 @@
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
@@ -695,6 +722,15 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>RAMELACT TAB</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>118.8000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -752,12 +788,6 @@
     <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -878,10 +908,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>39:0</t>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>42:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -950,7 +980,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:17 PM</t>
+    <t>Saturday, 4 October, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1657,7 +1687,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1667,14 +1697,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1683,14 +1713,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1700,14 +1730,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1740,7 +1770,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1749,14 +1779,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1766,14 +1796,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1782,14 +1812,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1799,11 +1829,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1815,14 +1845,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1832,11 +1862,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1848,14 +1878,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1865,14 +1895,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1905,7 +1935,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1921,7 +1951,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1931,14 +1961,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1947,14 +1977,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1964,14 +1994,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1980,14 +2010,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1997,14 +2027,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2013,14 +2043,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2030,11 +2060,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2046,14 +2076,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2063,14 +2093,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2079,14 +2109,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2096,14 +2126,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2112,14 +2142,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2129,14 +2159,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2145,14 +2175,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2162,14 +2192,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2178,14 +2208,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2195,14 +2225,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2211,14 +2241,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2228,14 +2258,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2244,14 +2274,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2261,14 +2291,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2277,14 +2307,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2294,14 +2324,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2310,14 +2340,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2327,14 +2357,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2343,14 +2373,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2360,11 +2390,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2376,14 +2406,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2393,14 +2423,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2409,14 +2439,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2426,14 +2456,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2442,14 +2472,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2459,14 +2489,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2475,14 +2505,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2499,7 +2529,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2515,7 +2545,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2532,7 +2562,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2548,7 +2578,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2558,14 +2588,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2574,14 +2604,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2591,14 +2621,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2607,14 +2637,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2624,14 +2654,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2640,14 +2670,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2657,14 +2687,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2673,14 +2703,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2690,14 +2720,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2706,14 +2736,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2723,14 +2753,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2739,14 +2769,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2756,14 +2786,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2779,7 +2809,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2789,14 +2819,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2805,14 +2835,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2822,14 +2852,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2838,14 +2868,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2855,14 +2885,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2878,7 +2908,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2888,14 +2918,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2904,14 +2934,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2921,14 +2951,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2937,14 +2967,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2954,14 +2984,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2970,14 +3000,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2987,14 +3017,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3003,14 +3033,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3020,14 +3050,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3036,14 +3066,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3053,11 +3083,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3069,14 +3099,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3086,14 +3116,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>151</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3102,14 +3132,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3126,7 +3156,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3142,7 +3172,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3159,7 +3189,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3175,7 +3205,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3208,7 +3238,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3218,14 +3248,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3234,14 +3264,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3258,7 +3288,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3274,7 +3304,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3291,7 +3321,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3307,24 +3337,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3333,7 +3363,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3350,7 +3380,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3373,7 +3403,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3390,7 +3420,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3406,7 +3436,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3416,11 +3446,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3432,31 +3462,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3465,14 +3495,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3482,11 +3512,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3498,14 +3528,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3515,14 +3545,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3531,14 +3561,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3548,14 +3578,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3564,14 +3594,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3585,10 +3615,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3597,31 +3627,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3630,14 +3660,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3647,11 +3677,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3663,14 +3693,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3684,10 +3714,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3696,14 +3726,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3713,11 +3743,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3729,20 +3759,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3753,7 +3783,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3769,7 +3799,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3779,14 +3809,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3795,31 +3825,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3828,14 +3858,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3845,14 +3875,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3861,31 +3891,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3894,14 +3924,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3911,14 +3941,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3934,21 +3964,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3960,14 +3990,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3977,14 +4007,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3993,28 +4023,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4026,14 +4056,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4043,14 +4073,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4059,14 +4089,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,14 +4106,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4092,31 +4122,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4125,31 +4155,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4158,31 +4188,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4198,7 +4228,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4208,11 +4238,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4224,14 +4254,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4241,14 +4271,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4257,31 +4287,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4290,14 +4320,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,11 +4337,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4323,14 +4353,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4340,14 +4370,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4356,14 +4386,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4373,11 +4403,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4389,14 +4419,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4436,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4422,14 +4452,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4439,14 +4469,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4455,14 +4485,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4472,11 +4502,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4488,14 +4518,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4505,14 +4535,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4521,14 +4551,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4538,14 +4568,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4554,14 +4584,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4571,14 +4601,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>107</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4587,31 +4617,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4620,28 +4650,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4653,31 +4683,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>55</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4686,31 +4716,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4719,28 +4749,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4752,28 +4782,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4785,31 +4815,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>290</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4818,31 +4848,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>294</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4851,28 +4881,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4884,28 +4914,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4917,7 +4947,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4930,15 +4960,15 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4950,31 +4980,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4983,31 +5013,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5023,21 +5053,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>157</v>
+        <v>289</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5049,28 +5079,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5082,28 +5112,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5115,28 +5145,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5148,28 +5178,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5181,7 +5211,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5194,15 +5224,15 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5214,66 +5244,231 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>6110.2449999999999</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>313</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>314</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
-        <v>315</v>
-      </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>317</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>63</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>184</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>195</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>318</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>281</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>184</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>147</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>320</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>31</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>184</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>243</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>321</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>18</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>184</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>14</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>322</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>311</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>184</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>160</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6414.9049999999997</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>323</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>324</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>325</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5837,10 +6032,35 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -980,7 +980,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:18 PM</t>
+    <t>Saturday, 4 October, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -827,6 +827,9 @@
     <t>10.8900</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -980,7 +983,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:19 PM</t>
+    <t>Saturday, 4 October, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4624,7 +4627,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4634,14 +4637,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4650,14 +4653,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4667,14 +4670,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4690,7 +4693,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4700,14 +4703,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4716,14 +4719,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>277</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4733,14 +4736,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4749,14 +4752,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4766,14 +4769,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4782,28 +4785,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4815,14 +4818,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4832,11 +4835,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4848,14 +4851,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4865,14 +4868,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4881,14 +4884,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4898,14 +4901,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>152</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4914,14 +4917,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4931,11 +4934,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4947,14 +4950,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4964,11 +4967,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4987,7 +4990,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4997,14 +5000,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>28</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5013,7 +5016,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5030,14 +5033,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5046,14 +5049,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5063,14 +5066,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5079,14 +5082,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5096,11 +5099,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5112,14 +5115,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5129,11 +5132,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5152,7 +5155,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5162,11 +5165,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5178,14 +5181,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5195,11 +5198,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5211,14 +5214,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5228,11 +5231,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5265,7 +5268,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5284,7 +5287,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5294,11 +5297,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5317,7 +5320,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5327,11 +5330,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5343,14 +5346,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5360,11 +5363,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>243</v>
+        <v>147</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5383,7 +5386,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5393,11 +5396,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5416,7 +5419,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>311</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5426,49 +5429,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>323</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>312</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>184</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>160</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>161</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6414.9049999999997</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>323</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6450.9049999999997</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>324</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
         <v>325</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>326</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6057,10 +6093,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -533,6 +533,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -656,6 +668,12 @@
     <t>56.00</t>
   </si>
   <si>
+    <t>OMEZ 40MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -890,9 +908,6 @@
     <t xml:space="preserve">حزام فقرات </t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -983,7 +998,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:21 PM</t>
+    <t>Saturday, 4 October, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3373,7 +3388,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3383,14 +3398,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3399,14 +3414,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3416,14 +3431,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3432,14 +3447,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3449,14 +3464,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3465,20 +3480,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3489,7 +3504,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3505,24 +3520,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3548,14 +3563,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3564,14 +3579,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3581,14 +3596,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3597,14 +3612,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3614,14 +3629,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>89</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3630,14 +3645,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3647,14 +3662,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3663,14 +3678,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3680,11 +3695,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3696,14 +3711,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3720,7 +3735,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3736,7 +3751,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3746,14 +3761,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3762,7 +3777,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3775,18 +3790,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3795,31 +3810,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3845,14 +3860,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3861,14 +3876,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3878,14 +3893,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3894,14 +3909,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3911,14 +3926,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3934,7 +3949,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3948,10 +3963,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3960,20 +3975,20 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3984,7 +3999,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4000,7 +4015,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4010,7 +4025,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4033,21 +4048,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4059,14 +4074,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4076,11 +4091,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>34</v>
@@ -4092,28 +4107,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4125,14 +4140,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4142,11 +4157,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>34</v>
@@ -4158,31 +4173,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4198,24 +4213,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4224,31 +4239,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4257,31 +4272,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4290,28 +4305,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4323,14 +4338,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4340,14 +4355,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4356,31 +4371,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4406,11 +4421,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4422,14 +4437,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4439,11 +4454,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>34</v>
@@ -4455,14 +4470,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4472,14 +4487,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4488,14 +4503,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4505,14 +4520,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4521,14 +4536,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4538,11 +4553,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>34</v>
@@ -4554,14 +4569,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4594,7 +4609,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4604,7 +4619,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4627,7 +4642,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4637,11 +4652,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4653,14 +4668,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4670,14 +4685,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4686,14 +4701,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4703,11 +4718,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4719,14 +4734,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>277</v>
+        <v>39</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4736,14 +4751,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4752,14 +4767,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4769,14 +4784,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4785,14 +4800,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4802,14 +4817,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4825,24 +4840,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4864,15 +4879,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4884,31 +4899,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4917,28 +4932,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4950,31 +4965,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>63</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4983,28 +4998,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5016,31 +5031,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>301</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5056,24 +5071,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>28</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5082,31 +5097,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>295</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5115,31 +5130,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>295</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>169</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5148,28 +5163,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5181,28 +5196,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5214,28 +5229,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>291</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5254,21 +5269,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5280,28 +5295,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>169</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5313,28 +5328,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5346,28 +5361,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5379,28 +5394,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5412,28 +5427,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5445,66 +5460,132 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>312</v>
+        <v>31</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>327</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>18</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>188</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>14</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>328</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>317</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>188</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>160</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
         <v>161</v>
       </c>
-      <c t="s" r="Q123" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6450.9049999999997</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>324</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>325</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>326</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6527.4250000000002</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>329</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>330</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>331</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6098,10 +6179,20 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -998,7 +998,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:22 PM</t>
+    <t>Saturday, 4 October, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -101,6 +101,21 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -113,9 +128,6 @@
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -263,51 +272,54 @@
     <t>CETAFEN 30 TABS</t>
   </si>
   <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CETAL SINUS 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>158.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
     <t>22.7700</t>
   </si>
   <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CETAL SINUS 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>158.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -998,7 +1010,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:26 PM</t>
+    <t>Saturday, 4 October, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1804,7 +1816,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1814,11 +1826,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>34</v>
@@ -1830,14 +1842,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1854,7 +1866,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1870,7 +1882,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1880,11 +1892,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1896,14 +1908,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1913,11 +1925,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1929,14 +1941,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1946,11 +1958,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1962,14 +1974,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1986,7 +1998,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1995,14 +2007,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2019,7 +2031,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2028,7 +2040,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2045,14 +2057,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2061,14 +2073,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2101,7 +2113,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2118,7 +2130,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2134,7 +2146,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2151,7 +2163,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2167,7 +2179,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2177,14 +2189,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2200,7 +2212,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2210,7 +2222,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2233,7 +2245,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2243,14 +2255,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2259,14 +2271,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2276,7 +2288,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2299,7 +2311,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2309,14 +2321,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2325,14 +2337,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2342,14 +2354,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2365,7 +2377,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2375,7 +2387,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2398,7 +2410,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2415,7 +2427,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2431,7 +2443,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2448,7 +2460,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2474,14 +2486,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2490,14 +2502,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2507,14 +2519,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2523,14 +2535,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2540,11 +2552,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>34</v>
@@ -2556,14 +2568,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2573,11 +2585,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>34</v>
@@ -2589,14 +2601,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2613,7 +2625,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2629,7 +2641,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2639,14 +2651,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2655,14 +2667,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2672,14 +2684,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2688,14 +2700,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2705,11 +2717,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2721,14 +2733,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2738,14 +2750,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2771,14 +2783,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2787,14 +2799,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2804,11 +2816,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>34</v>
@@ -2820,14 +2832,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2837,14 +2849,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2853,14 +2865,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2877,7 +2889,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2893,7 +2905,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2903,14 +2915,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2919,14 +2931,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2936,14 +2948,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2959,7 +2971,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2969,11 +2981,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>34</v>
@@ -2985,14 +2997,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3002,11 +3014,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>34</v>
@@ -3018,14 +3030,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3035,11 +3047,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>34</v>
@@ -3051,14 +3063,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3068,11 +3080,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>34</v>
@@ -3084,14 +3096,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3101,14 +3113,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3117,14 +3129,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3134,14 +3146,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3150,14 +3162,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3167,14 +3179,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3183,7 +3195,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3200,11 +3212,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -3216,14 +3228,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3233,14 +3245,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3249,14 +3261,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3266,14 +3278,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3282,14 +3294,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3299,14 +3311,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3322,7 +3334,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3332,14 +3344,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3348,14 +3360,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3365,14 +3377,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3381,14 +3393,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3405,7 +3417,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3421,7 +3433,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3431,14 +3443,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3447,14 +3459,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3464,14 +3476,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3480,14 +3492,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3497,14 +3509,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3513,20 +3525,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3537,7 +3549,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3553,24 +3565,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3579,14 +3591,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3596,14 +3608,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3612,14 +3624,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3629,14 +3641,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3645,14 +3657,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,14 +3674,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3678,14 +3690,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3695,14 +3707,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3711,14 +3723,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3728,11 +3740,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3744,14 +3756,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3768,7 +3780,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3784,7 +3796,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3794,14 +3806,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3810,7 +3822,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3823,18 +3835,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3843,31 +3855,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3876,14 +3888,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3893,14 +3905,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3909,14 +3921,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3926,11 +3938,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>34</v>
@@ -3942,14 +3954,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3959,14 +3971,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3975,14 +3987,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3992,14 +4004,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4015,7 +4027,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4025,14 +4037,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4041,31 +4053,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4074,31 +4086,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4107,31 +4119,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4140,31 +4152,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4173,14 +4185,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4190,14 +4202,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4206,14 +4218,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4223,14 +4235,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4239,28 +4251,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>34</v>
@@ -4272,31 +4284,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,28 +4317,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4338,14 +4350,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,14 +4367,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4371,31 +4383,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4404,7 +4416,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4417,15 +4429,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4437,14 +4449,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4454,14 +4466,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4470,14 +4482,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,14 +4499,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4503,14 +4515,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4520,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>141</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4536,14 +4548,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4553,11 +4565,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>34</v>
@@ -4569,14 +4581,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4586,14 +4598,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>37</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4609,7 +4621,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4619,14 +4631,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4635,14 +4647,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4652,14 +4664,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4668,14 +4680,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4685,14 +4697,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4701,14 +4713,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4718,14 +4730,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4734,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4751,14 +4763,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4767,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4784,14 +4796,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4800,14 +4812,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4817,14 +4829,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4833,14 +4845,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4850,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4866,14 +4878,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4883,14 +4895,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4906,21 +4918,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>36</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4932,28 +4944,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4965,31 +4977,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,31 +5010,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5031,28 +5043,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5064,28 +5076,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5097,31 +5109,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>28</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>306</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5143,7 +5155,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5170,24 +5182,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5196,28 +5208,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5229,28 +5241,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>170</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5262,28 +5274,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5295,28 +5307,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5328,28 +5340,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>169</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5361,7 +5373,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5374,15 +5386,15 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5394,28 +5406,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5427,28 +5439,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>288</v>
+        <v>31</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5460,28 +5472,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>170</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5493,28 +5505,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5526,66 +5538,99 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>317</v>
+        <v>18</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6527.4250000000002</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>329</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>330</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
-        <v>331</v>
-      </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>332</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>321</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>192</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>164</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6578.9049999999997</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>333</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>334</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>335</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6189,10 +6234,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -872,12 +872,15 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>4:1</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
+    <t>50.4900</t>
+  </si>
+  <si>
     <t>VONASPIRE 20MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -938,10 +941,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>42:0</t>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>43:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -4866,10 +4869,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4878,7 +4881,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4895,7 +4898,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4911,14 +4914,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4928,11 +4931,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4944,14 +4947,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4965,7 +4968,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4977,14 +4980,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5010,7 +5013,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5027,11 +5030,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>31</v>
@@ -5043,7 +5046,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5076,14 +5079,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5097,7 +5100,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5109,7 +5112,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5142,7 +5145,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5159,14 +5162,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5175,7 +5178,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5192,14 +5195,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5208,14 +5211,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5225,11 +5228,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5241,14 +5244,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5262,7 +5265,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5274,7 +5277,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5307,14 +5310,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5340,14 +5343,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5357,11 +5360,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5373,7 +5376,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5394,7 +5397,7 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5406,7 +5409,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5427,7 +5430,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5439,7 +5442,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5472,14 +5475,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5493,7 +5496,7 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5505,7 +5508,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5538,7 +5541,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5571,14 +5574,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5600,13 +5603,13 @@
     </row>
     <row r="127" ht="25.5" customHeight="1">
       <c r="P127" s="13">
-        <v>6578.9049999999997</v>
+        <v>6597.7349999999997</v>
       </c>
       <c r="Q127" s="13"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
       <c t="s" r="A128" s="14">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -5614,13 +5617,13 @@
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c t="s" r="G128" s="15">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="16"/>
       <c t="s" r="K128" s="17">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L128" s="17"/>
       <c r="M128" s="17"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -467,6 +467,15 @@
     <t>70.00</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -512,9 +521,6 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -725,10 +731,7 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -1013,7 +1016,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:28 PM</t>
+    <t>Saturday, 4 October, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3139,7 +3142,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3149,14 +3152,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3172,7 +3175,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3182,14 +3185,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3198,14 +3201,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3215,14 +3218,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3271,7 +3274,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3288,7 +3291,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3304,7 +3307,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3314,14 +3317,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3330,14 +3333,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3347,14 +3350,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3363,14 +3366,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3380,14 +3383,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3396,14 +3399,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3413,14 +3416,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3429,14 +3432,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3446,14 +3449,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3462,14 +3465,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3479,14 +3482,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3495,14 +3498,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3512,14 +3515,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3528,14 +3531,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3545,14 +3548,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3561,31 +3564,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3594,31 +3597,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3634,7 +3637,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3644,14 +3647,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3660,14 +3663,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3677,14 +3680,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3693,14 +3696,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3710,14 +3713,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3726,14 +3729,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3747,10 +3750,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3766,7 +3769,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3780,7 +3783,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3792,14 +3795,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3809,14 +3812,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3825,14 +3828,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3842,14 +3845,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3858,7 +3861,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3871,18 +3874,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3891,31 +3894,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3931,7 +3934,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3941,14 +3944,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3964,7 +3967,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3978,7 +3981,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>34</v>
@@ -3997,7 +4000,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4011,10 +4014,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4030,7 +4033,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4040,14 +4043,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4056,14 +4059,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,14 +4076,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4089,31 +4092,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4122,31 +4125,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4155,31 +4158,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4188,31 +4191,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4228,7 +4231,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,14 +4241,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4261,7 +4264,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,14 +4274,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4287,28 +4290,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>34</v>
@@ -4320,31 +4323,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4353,28 +4356,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4386,14 +4389,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,14 +4406,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4419,31 +4422,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4465,15 +4468,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4485,14 +4488,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4502,14 +4505,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4518,14 +4521,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,14 +4538,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>141</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4558,7 +4561,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4571,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>141</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4584,14 +4587,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4601,11 +4604,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>34</v>
@@ -4624,7 +4627,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,14 +4637,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4650,14 +4653,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4667,14 +4670,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4683,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4700,14 +4703,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4716,14 +4719,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4733,14 +4736,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4749,14 +4752,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4766,14 +4769,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4789,7 +4792,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4799,14 +4802,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4815,14 +4818,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4832,14 +4835,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4855,7 +4858,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4865,14 +4868,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4881,14 +4884,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4898,14 +4901,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4914,14 +4917,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4931,14 +4934,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4947,28 +4950,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4980,28 +4983,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5013,31 +5016,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5046,31 +5049,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5086,21 +5089,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5112,28 +5115,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>29</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5152,24 +5155,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>28</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>311</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5178,7 +5181,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5191,18 +5194,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5211,31 +5214,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5244,28 +5247,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5277,28 +5280,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>174</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5317,21 +5320,21 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5343,28 +5346,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5376,28 +5379,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>173</v>
+        <v>326</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5422,15 +5425,15 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5449,21 +5452,21 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5482,21 +5485,21 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>330</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5508,28 +5511,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>174</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5548,21 +5551,21 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5581,59 +5584,92 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6597.7349999999997</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>334</v>
       </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>323</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>194</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>167</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>6636.5749999999998</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
         <v>335</v>
       </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
         <v>336</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>337</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6242,10 +6278,15 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -1016,7 +1016,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:43 PM</t>
+    <t>Saturday, 4 October, 2025 10:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-04_00-00.xlsx
+++ b/DaySale_2025-10-04_00-00.xlsx
@@ -914,6 +914,9 @@
     <t>23:0</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -1016,7 +1019,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 4 October, 2025 10:58 PM</t>
+    <t>Saturday, 4 October, 2025 11:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5056,7 +5059,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,14 +5069,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,14 +5085,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5099,14 +5102,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5122,7 +5125,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5132,11 +5135,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5148,14 +5151,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5165,11 +5168,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>29</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5188,7 +5191,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5198,14 +5201,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>28</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5214,7 +5217,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5231,14 +5234,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5247,14 +5250,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5264,14 +5267,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5280,14 +5283,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5297,11 +5300,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>175</v>
+        <v>303</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5313,14 +5316,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,11 +5333,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5353,7 +5356,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,11 +5366,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>273</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5379,14 +5382,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5396,11 +5399,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5412,14 +5415,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>18</v>
+        <v>326</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,11 +5432,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>175</v>
+        <v>327</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5466,7 +5469,7 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5485,7 +5488,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5495,11 +5498,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5518,7 +5521,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>294</v>
+        <v>31</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5528,11 +5531,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5544,14 +5547,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5561,11 +5564,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5584,7 +5587,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5594,11 +5597,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5617,7 +5620,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>323</v>
+        <v>18</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5627,49 +5630,82 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>335</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>324</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>194</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>167</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>168</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>6636.5749999999998</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>335</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6661.5749999999998</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
         <v>336</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
         <v>337</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>338</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6283,10 +6319,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
